--- a/Data Harapan Hidup.xlsx
+++ b/Data Harapan Hidup.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\retno\Documents\MATERI KULIAH\Semester 4\ANALISIS REGRESI\DATA PROJEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{08EFFFCE-4295-4BD7-8ECF-999CEE6C4AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F901C392-4BA7-4FF4-8381-FC56479B6ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{E28EBDF3-20E0-42C0-BEF8-7B277D9CC04F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Peubah X" sheetId="1" r:id="rId1"/>
     <sheet name="Life Expectancy" sheetId="2" r:id="rId2"/>
+    <sheet name="Nomenklatur" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="211">
   <si>
     <t>1. GDP per Kapita</t>
   </si>
@@ -596,12 +597,108 @@
   <si>
     <t>Lower-middle-income countries</t>
   </si>
+  <si>
+    <t>Peubah</t>
+  </si>
+  <si>
+    <t>Keterangan</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>GDP per Kapita</t>
+  </si>
+  <si>
+    <t>Rata-rata Lama Sekolah</t>
+  </si>
+  <si>
+    <t>Pengeluaran Kesehatan</t>
+  </si>
+  <si>
+    <t>Akses Air Bersih</t>
+  </si>
+  <si>
+    <t>Angka Kematian Anak</t>
+  </si>
+  <si>
+    <t>Tingkat Obesitas</t>
+  </si>
+  <si>
+    <t>Akses Sanitasi Layak</t>
+  </si>
+  <si>
+    <t>Pravelensi Perokok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kelompok Pendapatan </t>
+  </si>
+  <si>
+    <t>Harapan</t>
+  </si>
+  <si>
+    <t>Satuan</t>
+  </si>
+  <si>
+    <t>Sumber Data</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/gdp-penn-world-table?time=2024</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/</t>
+  </si>
+  <si>
+    <t>Internasional Dollar (PPP)</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/years-of-schooling?tab=table&amp;metric_type=average_years_schooling&amp;level=all&amp;sex=both</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Persen (%)</t>
+  </si>
+  <si>
+    <t>Not found</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/share-of-the-population-using-improved-water-sources-wash</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/share-of-population-with-improved-sanitation-faciltities?overlay=download-data</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/out-of-pocket-expenditure-per-capita-on-healthcare</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/infant-mortality</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/share-of-adults-who-smoke</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/share-of-adults-defined-as-obese</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/world-bank-income-groups?overlay=download-data</t>
+  </si>
+  <si>
+    <t>Kategori</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/life-expectancy-hmd-unwpp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +731,20 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -709,10 +820,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -739,11 +851,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -755,22 +869,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF0000"/>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1108,7 +1206,7 @@
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1174,13 +1272,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE99B62-C9DA-415D-91AE-1B3C95717267}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="88" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F82" sqref="F82"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1193,7 +1291,9 @@
     <col min="7" max="7" width="16.36328125" customWidth="1"/>
     <col min="8" max="8" width="13.54296875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
     <col min="12" max="12" width="34" style="9" customWidth="1"/>
+    <col min="13" max="13" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
@@ -1254,16 +1354,16 @@
         <v>23.088170000000002</v>
       </c>
       <c r="G2">
-        <v>29.907447999999999</v>
+        <v>82.98921</v>
       </c>
       <c r="H2">
-        <v>24.19669</v>
+        <v>53.090940000000003</v>
       </c>
       <c r="I2">
         <v>5.0364399999999998</v>
       </c>
       <c r="J2">
-        <v>4.4000000000000004</v>
+        <v>17.594190000000001</v>
       </c>
       <c r="K2" s="3">
         <v>23.3</v>
@@ -1292,16 +1392,16 @@
         <v>6.1936799999999996</v>
       </c>
       <c r="G3">
-        <v>70.765395999999996</v>
+        <v>96.974999999999994</v>
       </c>
       <c r="H3">
-        <v>66.600099999999998</v>
+        <v>99.299490000000006</v>
       </c>
       <c r="I3">
         <v>0.83158933999999995</v>
       </c>
       <c r="J3">
-        <v>15.9</v>
+        <v>26.583349999999999</v>
       </c>
       <c r="K3" s="3">
         <v>22.4</v>
@@ -1330,16 +1430,16 @@
         <v>3.62304</v>
       </c>
       <c r="G4">
-        <v>68.967865000000003</v>
+        <v>97.105125000000001</v>
       </c>
       <c r="H4">
-        <v>62.452632999999999</v>
+        <v>85.867040000000003</v>
       </c>
       <c r="I4">
         <v>1.9743147999999999</v>
       </c>
       <c r="J4">
-        <v>12.5</v>
+        <v>24.24859</v>
       </c>
       <c r="K4" s="3">
         <v>21</v>
@@ -1368,13 +1468,16 @@
         <v>7.5367899999999999</v>
       </c>
       <c r="G5">
-        <v>90.64</v>
+        <v>100</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
         <v>0.24773584000000001</v>
+      </c>
+      <c r="J5">
+        <v>20.47006</v>
       </c>
       <c r="K5" s="3">
         <v>31.8</v>
@@ -1402,11 +1505,17 @@
       <c r="F6">
         <v>2.9273799999999999</v>
       </c>
+      <c r="G6">
+        <v>78.282669999999996</v>
+      </c>
+      <c r="H6" t="s">
+        <v>201</v>
+      </c>
       <c r="I6">
         <v>3.82714</v>
       </c>
       <c r="J6">
-        <v>4.3</v>
+        <v>10.535019999999999</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="9" t="s">
@@ -1432,11 +1541,17 @@
       <c r="F7">
         <v>9.8630499999999994</v>
       </c>
+      <c r="G7" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" t="s">
+        <v>201</v>
+      </c>
       <c r="I7">
         <v>0.81754959999999999</v>
       </c>
       <c r="J7">
-        <v>13.7</v>
+        <v>36.025640000000003</v>
       </c>
       <c r="K7" s="3">
         <v>24.5</v>
@@ -1465,16 +1580,16 @@
         <v>9.9621300000000002</v>
       </c>
       <c r="G8">
-        <v>82.214429999999993</v>
+        <v>99.922200000000004</v>
       </c>
       <c r="H8">
-        <v>10.762041999999999</v>
+        <v>93.567449999999994</v>
       </c>
       <c r="I8">
         <v>0.88751049999999998</v>
       </c>
       <c r="J8">
-        <v>12.5</v>
+        <v>27.866209999999999</v>
       </c>
       <c r="K8" s="3">
         <v>25.5</v>
@@ -1502,14 +1617,17 @@
       <c r="F9">
         <v>9.9268800000000006</v>
       </c>
+      <c r="G9">
+        <v>99.969679999999997</v>
+      </c>
       <c r="H9">
-        <v>95.687960000000004</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>0.31361938</v>
       </c>
       <c r="J9">
-        <v>25.3</v>
+        <v>31.824149999999999</v>
       </c>
       <c r="K9" s="3">
         <v>13.6</v>
@@ -1538,13 +1656,16 @@
         <v>11.15729</v>
       </c>
       <c r="G10">
-        <v>98.894000000000005</v>
+        <v>100</v>
       </c>
       <c r="H10">
-        <v>98.690430000000006</v>
+        <v>99.972244000000003</v>
       </c>
       <c r="I10">
         <v>0.26263183000000001</v>
+      </c>
+      <c r="J10">
+        <v>17.04036</v>
       </c>
       <c r="K10" s="3">
         <v>26.4</v>
@@ -1573,16 +1694,16 @@
         <v>3.9784099999999998</v>
       </c>
       <c r="G11">
-        <v>57.45046</v>
+        <v>98.275986000000003</v>
       </c>
       <c r="H11">
-        <v>66.889439999999993</v>
+        <v>97.948220000000006</v>
       </c>
       <c r="I11">
         <v>1.3325222000000001</v>
       </c>
       <c r="J11">
-        <v>4.7</v>
+        <v>27.504110000000001</v>
       </c>
       <c r="K11" s="3">
         <v>24</v>
@@ -1610,8 +1731,17 @@
       <c r="F12">
         <v>7.21692</v>
       </c>
+      <c r="G12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" t="s">
+        <v>201</v>
+      </c>
       <c r="I12">
         <v>1.1365536000000001</v>
+      </c>
+      <c r="J12">
+        <v>47.610469999999999</v>
       </c>
       <c r="K12" s="3">
         <v>10.6</v>
@@ -1640,13 +1770,16 @@
         <v>3.83745</v>
       </c>
       <c r="G13">
-        <v>98.903980000000004</v>
+        <v>99.919899999999998</v>
       </c>
       <c r="H13">
-        <v>93.033900000000003</v>
+        <v>100</v>
       </c>
       <c r="I13">
         <v>0.71515810000000002</v>
+      </c>
+      <c r="J13">
+        <v>37.187390000000001</v>
       </c>
       <c r="K13" s="3">
         <v>14.9</v>
@@ -1675,16 +1808,16 @@
         <v>2.39039</v>
       </c>
       <c r="G14">
-        <v>59.142803000000001</v>
+        <v>99.448139999999995</v>
       </c>
       <c r="H14">
-        <v>36.200499999999998</v>
+        <v>65.630420000000001</v>
       </c>
       <c r="I14">
         <v>2.4366615</v>
       </c>
       <c r="J14">
-        <v>1.7</v>
+        <v>5.2903500000000001</v>
       </c>
       <c r="K14" s="3">
         <v>34.700000000000003</v>
@@ -1712,11 +1845,17 @@
       <c r="F15">
         <v>6.2938900000000002</v>
       </c>
+      <c r="G15">
+        <v>99.432000000000002</v>
+      </c>
+      <c r="H15">
+        <v>98.092460000000003</v>
+      </c>
       <c r="I15">
         <v>0.93004659999999995</v>
       </c>
       <c r="J15">
-        <v>13.1</v>
+        <v>38.22936</v>
       </c>
       <c r="K15" s="3">
         <v>8.5</v>
@@ -1745,16 +1884,16 @@
         <v>6.6592000000000002</v>
       </c>
       <c r="G16">
-        <v>93.045745999999994</v>
+        <v>99.875590000000003</v>
       </c>
       <c r="H16">
-        <v>74.416030000000006</v>
+        <v>99.719939999999994</v>
       </c>
       <c r="I16">
         <v>0.18836947000000001</v>
       </c>
       <c r="J16">
-        <v>3.2</v>
+        <v>26.551269999999999</v>
       </c>
       <c r="K16" s="3">
         <v>30.5</v>
@@ -1783,16 +1922,16 @@
         <v>10.76192</v>
       </c>
       <c r="G17">
-        <v>99.560910000000007</v>
+        <v>100</v>
       </c>
       <c r="H17">
-        <v>94.897000000000006</v>
+        <v>99.48621</v>
       </c>
       <c r="I17">
         <v>0.30426034000000002</v>
       </c>
       <c r="J17">
-        <v>4.7</v>
+        <v>22.00038</v>
       </c>
       <c r="K17" s="3">
         <v>23.4</v>
@@ -1820,11 +1959,17 @@
       <c r="F18">
         <v>4.2317400000000003</v>
       </c>
+      <c r="G18">
+        <v>96.028019999999998</v>
+      </c>
+      <c r="H18">
+        <v>84.249724999999998</v>
+      </c>
       <c r="I18">
         <v>1.0844069000000001</v>
       </c>
       <c r="J18">
-        <v>5.8</v>
+        <v>41.910919999999997</v>
       </c>
       <c r="K18" s="3">
         <v>8.5</v>
@@ -1853,16 +1998,16 @@
         <v>2.6798099999999998</v>
       </c>
       <c r="G19">
-        <v>17.541917999999999</v>
+        <v>76.715996000000004</v>
       </c>
       <c r="H19">
-        <v>15.866046000000001</v>
+        <v>21.546029999999998</v>
       </c>
       <c r="I19">
         <v>4.6421504000000002</v>
       </c>
       <c r="J19">
-        <v>3.2</v>
+        <v>9.8947000000000003</v>
       </c>
       <c r="K19" s="3">
         <v>6.9</v>
@@ -1890,11 +2035,17 @@
       <c r="F20">
         <v>8.4314300000000006</v>
       </c>
+      <c r="G20">
+        <v>93.097885000000005</v>
+      </c>
+      <c r="H20">
+        <v>70.433539999999994</v>
+      </c>
       <c r="I20">
         <v>2.0037693999999999</v>
       </c>
       <c r="J20">
-        <v>9.6</v>
+        <v>27.80303</v>
       </c>
       <c r="K20" s="3">
         <v>12.7</v>
@@ -1923,13 +2074,16 @@
         <v>8.71645</v>
       </c>
       <c r="G21">
-        <v>86.400475</v>
+        <v>99.952060000000003</v>
+      </c>
+      <c r="H21" t="s">
+        <v>201</v>
       </c>
       <c r="I21">
         <v>0.53459184999999998</v>
       </c>
       <c r="J21">
-        <v>12.5</v>
+        <v>25.467009999999998</v>
       </c>
       <c r="K21" s="3">
         <v>35</v>
@@ -1958,13 +2112,16 @@
         <v>5.7283900000000001</v>
       </c>
       <c r="G22">
-        <v>63.915768</v>
+        <v>96.089389999999995</v>
+      </c>
+      <c r="H22">
+        <v>71.994140000000002</v>
       </c>
       <c r="I22">
         <v>3.8248791999999998</v>
       </c>
       <c r="J22">
-        <v>11.3</v>
+        <v>17.458480000000002</v>
       </c>
       <c r="K22" s="3">
         <v>19.399999999999999</v>
@@ -1993,16 +2150,16 @@
         <v>9.1427700000000005</v>
       </c>
       <c r="G23">
-        <v>87.952830000000006</v>
+        <v>99.898055999999997</v>
       </c>
       <c r="H23">
-        <v>54.074913000000002</v>
+        <v>91.712845000000002</v>
       </c>
       <c r="I23">
         <v>1.2461936</v>
       </c>
       <c r="J23">
-        <v>10.5</v>
+        <v>28.762920000000001</v>
       </c>
       <c r="K23" s="3">
         <v>12.8</v>
@@ -2030,11 +2187,17 @@
       <c r="F24">
         <v>1.81768</v>
       </c>
+      <c r="G24">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
       <c r="I24">
         <v>0.82454305999999999</v>
       </c>
       <c r="J24">
-        <v>9.4</v>
+        <v>32.378019999999999</v>
       </c>
       <c r="K24" s="3">
         <v>16.2</v>
@@ -2063,16 +2226,16 @@
         <v>7.6635799999999996</v>
       </c>
       <c r="G25">
-        <v>96.287490000000005</v>
+        <v>99.201740000000001</v>
       </c>
       <c r="H25">
-        <v>74.682975999999996</v>
+        <v>86.06626</v>
       </c>
       <c r="I25">
         <v>0.49956107</v>
       </c>
       <c r="J25">
-        <v>5</v>
+        <v>24.247859999999999</v>
       </c>
       <c r="K25" s="3">
         <v>39</v>
@@ -2100,14 +2263,17 @@
       <c r="F26">
         <v>6.77182</v>
       </c>
+      <c r="G26">
+        <v>81.173429999999996</v>
+      </c>
       <c r="H26">
-        <v>24.024550000000001</v>
+        <v>30.915075000000002</v>
       </c>
       <c r="I26">
         <v>4.4803785999999999</v>
       </c>
       <c r="J26">
-        <v>2.2999999999999998</v>
+        <v>6.1007699999999998</v>
       </c>
       <c r="K26" s="3">
         <v>14.3</v>
@@ -2135,11 +2301,17 @@
       <c r="F27">
         <v>8.3952299999999997</v>
       </c>
+      <c r="G27">
+        <v>86.277270000000001</v>
+      </c>
+      <c r="H27">
+        <v>44.645609999999998</v>
+      </c>
       <c r="I27">
         <v>3.1460824000000001</v>
       </c>
       <c r="J27">
-        <v>2.2000000000000002</v>
+        <v>4.5345000000000004</v>
       </c>
       <c r="K27" s="3">
         <v>11.8</v>
@@ -2168,16 +2340,16 @@
         <v>4.7108999999999996</v>
       </c>
       <c r="G28">
-        <v>29.445081999999999</v>
+        <v>90.617744000000002</v>
       </c>
       <c r="H28">
-        <v>49.713977999999997</v>
+        <v>80.356899999999996</v>
       </c>
       <c r="I28">
         <v>2.0316860000000001</v>
       </c>
       <c r="J28">
-        <v>4.8</v>
+        <v>4.3864599999999996</v>
       </c>
       <c r="K28" s="3">
         <v>21.1</v>
@@ -2205,11 +2377,17 @@
       <c r="F29">
         <v>4.4783600000000003</v>
       </c>
+      <c r="G29">
+        <v>85.484639999999999</v>
+      </c>
+      <c r="H29">
+        <v>46.622622999999997</v>
+      </c>
       <c r="I29">
         <v>4.1249900000000004</v>
       </c>
       <c r="J29">
-        <v>11.9</v>
+        <v>13.350759999999999</v>
       </c>
       <c r="K29" s="3">
         <v>7.3</v>
@@ -2238,16 +2416,16 @@
         <v>11.23433</v>
       </c>
       <c r="G30">
-        <v>96.890799999999999</v>
+        <v>98.290503999999999</v>
       </c>
       <c r="H30">
-        <v>81.299350000000004</v>
+        <v>98.588134999999994</v>
       </c>
       <c r="I30">
         <v>0.44341673999999998</v>
       </c>
       <c r="J30">
-        <v>11.4</v>
+        <v>27.31915</v>
       </c>
       <c r="K30" s="3">
         <v>13</v>
@@ -2276,16 +2454,16 @@
         <v>10.061730000000001</v>
       </c>
       <c r="G31">
-        <v>97.726100000000002</v>
+        <v>98.989019999999996</v>
       </c>
       <c r="H31">
-        <v>95.078545000000005</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>0.62005639999999995</v>
       </c>
       <c r="J31">
-        <v>8.6999999999999993</v>
+        <v>39.522880000000001</v>
       </c>
       <c r="K31" s="3">
         <v>29.2</v>
@@ -2313,14 +2491,17 @@
       <c r="F32">
         <v>5.3694899999999999</v>
       </c>
+      <c r="G32">
+        <v>96.287440000000004</v>
+      </c>
       <c r="H32">
-        <v>68.412414999999996</v>
+        <v>97.241164999999995</v>
       </c>
       <c r="I32">
         <v>0.44513127000000002</v>
       </c>
       <c r="J32">
-        <v>10.4</v>
+        <v>8.2112599999999993</v>
       </c>
       <c r="K32" s="3">
         <v>25.6</v>
@@ -2349,16 +2530,16 @@
         <v>7.5736100000000004</v>
       </c>
       <c r="G33">
-        <v>74.152373999999995</v>
+        <v>97.128879999999995</v>
       </c>
       <c r="H33">
-        <v>18.578240000000001</v>
+        <v>95.712800000000001</v>
       </c>
       <c r="I33">
         <v>1.0935143000000001</v>
       </c>
       <c r="J33">
-        <v>6.5</v>
+        <v>23.85454</v>
       </c>
       <c r="K33" s="3">
         <v>8.5</v>
@@ -2387,10 +2568,16 @@
         <v>7.2154499999999997</v>
       </c>
       <c r="G34">
-        <v>87.185239999999993</v>
+        <v>99.902860000000004</v>
+      </c>
+      <c r="H34" t="s">
+        <v>201</v>
       </c>
       <c r="I34">
         <v>0.38625556</v>
+      </c>
+      <c r="J34">
+        <v>35.651739999999997</v>
       </c>
       <c r="K34" s="3">
         <v>36.9</v>
@@ -2415,14 +2602,17 @@
       <c r="F35">
         <v>11.78683</v>
       </c>
+      <c r="G35">
+        <v>97.702789999999993</v>
+      </c>
       <c r="H35">
-        <v>45.497864</v>
+        <v>94.122079999999997</v>
       </c>
       <c r="I35">
         <v>0.65885746000000001</v>
       </c>
       <c r="J35">
-        <v>10.5</v>
+        <v>23.539249999999999</v>
       </c>
       <c r="K35" s="3">
         <v>17.899999999999999</v>
@@ -2454,10 +2644,13 @@
         <v>99.721080000000001</v>
       </c>
       <c r="H36">
-        <v>76.945340000000002</v>
+        <v>99.476879999999994</v>
       </c>
       <c r="I36">
         <v>0.28629258000000002</v>
+      </c>
+      <c r="J36">
+        <v>25.109929999999999</v>
       </c>
       <c r="K36" s="3">
         <v>35.1</v>
@@ -2485,14 +2678,17 @@
       <c r="F37">
         <v>8.7990499999999994</v>
       </c>
+      <c r="G37">
+        <v>99.923869999999994</v>
+      </c>
       <c r="H37">
-        <v>91.244990000000001</v>
+        <v>99.070809999999994</v>
       </c>
       <c r="I37">
         <v>0.20731346</v>
       </c>
       <c r="J37">
-        <v>6.3</v>
+        <v>31.29533</v>
       </c>
       <c r="K37" s="3">
         <v>30.7</v>
@@ -2521,13 +2717,16 @@
         <v>9.4758600000000008</v>
       </c>
       <c r="G38">
-        <v>99.918819999999997</v>
+        <v>100</v>
       </c>
       <c r="H38">
-        <v>98.83032</v>
+        <v>99.597219999999993</v>
       </c>
       <c r="I38">
         <v>0.30220829999999999</v>
+      </c>
+      <c r="J38">
+        <v>14.30341</v>
       </c>
       <c r="K38" s="3">
         <v>17.5</v>
@@ -2556,16 +2755,16 @@
         <v>7.5345700000000004</v>
       </c>
       <c r="G39">
-        <v>69.66892</v>
+        <v>95.69211</v>
       </c>
       <c r="H39">
-        <v>49.330813999999997</v>
+        <v>90.555695</v>
       </c>
       <c r="I39">
         <v>1.1094198</v>
       </c>
       <c r="J39">
-        <v>5.2</v>
+        <v>26.983630000000002</v>
       </c>
       <c r="K39" s="3">
         <v>11.3</v>
@@ -2594,16 +2793,16 @@
         <v>4.7043799999999996</v>
       </c>
       <c r="G40">
-        <v>78.342969999999994</v>
+        <v>98.115470000000002</v>
       </c>
       <c r="H40">
-        <v>54.219720000000002</v>
+        <v>96.865746000000001</v>
       </c>
       <c r="I40">
         <v>1.6145948000000001</v>
       </c>
       <c r="J40">
-        <v>11.1</v>
+        <v>42.989240000000002</v>
       </c>
       <c r="K40" s="3">
         <v>24.3</v>
@@ -2631,14 +2830,17 @@
       <c r="F41">
         <v>9.8407999999999998</v>
       </c>
+      <c r="G41">
+        <v>98.641975000000002</v>
+      </c>
       <c r="H41">
-        <v>36.385283999999999</v>
+        <v>87.791970000000006</v>
       </c>
       <c r="I41">
         <v>0.91705537000000004</v>
       </c>
       <c r="J41">
-        <v>8.3000000000000007</v>
+        <v>29.89273</v>
       </c>
       <c r="K41" s="3">
         <v>7.9</v>
@@ -2667,16 +2869,16 @@
         <v>6.9870099999999997</v>
       </c>
       <c r="G42">
-        <v>98.776340000000005</v>
+        <v>100</v>
       </c>
       <c r="H42">
-        <v>90.506230000000002</v>
+        <v>99.022040000000004</v>
       </c>
       <c r="I42">
         <v>0.15979615999999999</v>
       </c>
       <c r="J42">
-        <v>5.5</v>
+        <v>26.670950000000001</v>
       </c>
       <c r="K42" s="3">
         <v>29.7</v>
@@ -2705,16 +2907,16 @@
         <v>2.8527499999999999</v>
       </c>
       <c r="G43">
-        <v>13.205653999999999</v>
+        <v>81.083920000000006</v>
       </c>
       <c r="H43">
-        <v>7.7858166999999998</v>
+        <v>10.016807999999999</v>
       </c>
       <c r="I43">
         <v>3.5741610000000001</v>
       </c>
       <c r="J43">
-        <v>3</v>
+        <v>2.40611</v>
       </c>
       <c r="K43" s="3">
         <v>5.0999999999999996</v>
@@ -2743,16 +2945,16 @@
         <v>9.6589200000000002</v>
       </c>
       <c r="G44">
-        <v>99.644324999999995</v>
+        <v>100</v>
       </c>
       <c r="H44">
-        <v>89.969459999999998</v>
+        <v>99.447950000000006</v>
       </c>
       <c r="I44">
         <v>0.18189011999999999</v>
       </c>
       <c r="J44">
-        <v>4.5999999999999996</v>
+        <v>23.701090000000001</v>
       </c>
       <c r="K44" s="3">
         <v>21.6</v>
@@ -2781,13 +2983,16 @@
         <v>11.8819</v>
       </c>
       <c r="G45">
-        <v>99.708434999999994</v>
+        <v>100</v>
       </c>
       <c r="H45">
-        <v>89.895589999999999</v>
+        <v>98.645189999999999</v>
       </c>
       <c r="I45">
         <v>0.34116600000000002</v>
+      </c>
+      <c r="J45">
+        <v>10.924810000000001</v>
       </c>
       <c r="K45" s="3">
         <v>33.4</v>
@@ -2815,11 +3020,17 @@
       <c r="F46">
         <v>2.8559199999999998</v>
       </c>
+      <c r="G46">
+        <v>94.274799999999999</v>
+      </c>
+      <c r="H46">
+        <v>57.301631999999998</v>
+      </c>
       <c r="I46">
         <v>2.6495975999999999</v>
       </c>
       <c r="J46">
-        <v>5.7</v>
+        <v>20.001619999999999</v>
       </c>
       <c r="K46" s="4"/>
       <c r="L46" s="9" t="s">
@@ -2846,16 +3057,16 @@
         <v>7.2557</v>
       </c>
       <c r="G47">
-        <v>70.256039999999999</v>
+        <v>98.176699999999997</v>
       </c>
       <c r="H47">
-        <v>62.558810000000001</v>
+        <v>90.048990000000003</v>
       </c>
       <c r="I47">
         <v>0.79514485999999995</v>
       </c>
       <c r="J47">
-        <v>4.4000000000000004</v>
+        <v>38.936360000000001</v>
       </c>
       <c r="K47" s="3">
         <v>31.7</v>
@@ -2884,16 +3095,16 @@
         <v>12.605130000000001</v>
       </c>
       <c r="G48">
-        <v>99.916830000000004</v>
+        <v>100</v>
       </c>
       <c r="H48">
-        <v>96.756034999999997</v>
+        <v>99.226555000000005</v>
       </c>
       <c r="I48">
         <v>0.30717576000000002</v>
       </c>
       <c r="J48">
-        <v>3.2</v>
+        <v>24.161919999999999</v>
       </c>
       <c r="K48" s="3">
         <v>22</v>
@@ -2922,16 +3133,16 @@
         <v>3.69936</v>
       </c>
       <c r="G49">
-        <v>41.540984999999999</v>
+        <v>93.724440000000001</v>
       </c>
       <c r="H49">
-        <v>18.128876000000002</v>
+        <v>30.304846000000001</v>
       </c>
       <c r="I49">
         <v>2.8172605000000002</v>
       </c>
       <c r="J49">
-        <v>1.8</v>
+        <v>12.108739999999999</v>
       </c>
       <c r="K49" s="3">
         <v>3.5</v>
@@ -2960,16 +3171,16 @@
         <v>8.4998400000000007</v>
       </c>
       <c r="G50">
-        <v>96.881820000000005</v>
+        <v>100</v>
       </c>
       <c r="H50">
-        <v>92.259469999999993</v>
+        <v>99.003944000000004</v>
       </c>
       <c r="I50">
         <v>0.31798756</v>
       </c>
       <c r="J50">
-        <v>13.6</v>
+        <v>33.682049999999997</v>
       </c>
       <c r="K50" s="3">
         <v>33.5</v>
@@ -2998,13 +3209,16 @@
         <v>7.4409900000000002</v>
       </c>
       <c r="G51">
-        <v>48.876980000000003</v>
+        <v>94.530019999999993</v>
+      </c>
+      <c r="H51">
+        <v>70.604125999999994</v>
       </c>
       <c r="I51">
         <v>1.7869858999999999</v>
       </c>
       <c r="J51">
-        <v>3.7</v>
+        <v>25.199549999999999</v>
       </c>
       <c r="K51" s="5">
         <v>10.9</v>
@@ -3033,16 +3247,16 @@
         <v>8.1135800000000007</v>
       </c>
       <c r="G52">
-        <v>23.889536</v>
+        <v>76.584914999999995</v>
       </c>
       <c r="H52">
-        <v>22.542797</v>
+        <v>28.831972</v>
       </c>
       <c r="I52">
         <v>4.3055919999999999</v>
       </c>
       <c r="J52">
-        <v>3.1</v>
+        <v>10.077489999999999</v>
       </c>
       <c r="K52" s="3">
         <v>9</v>
@@ -3070,11 +3284,17 @@
       <c r="F53">
         <v>3.2084899999999998</v>
       </c>
+      <c r="G53">
+        <v>83.711399999999998</v>
+      </c>
+      <c r="H53">
+        <v>29.018084000000002</v>
+      </c>
       <c r="I53">
         <v>4.0327789999999997</v>
       </c>
       <c r="J53">
-        <v>3.8</v>
+        <v>10.226929999999999</v>
       </c>
       <c r="K53" s="3">
         <v>7.7</v>
@@ -3105,6 +3325,9 @@
       <c r="H54">
         <v>94.956010000000006</v>
       </c>
+      <c r="J54" t="s">
+        <v>201</v>
+      </c>
       <c r="K54" s="5">
         <v>9.4</v>
       </c>
@@ -3135,10 +3358,13 @@
         <v>100</v>
       </c>
       <c r="H55">
-        <v>91.079505999999995</v>
+        <v>97.976200000000006</v>
       </c>
       <c r="I55">
         <v>0.31550929999999999</v>
+      </c>
+      <c r="J55">
+        <v>36.398980000000002</v>
       </c>
       <c r="K55" s="3">
         <v>31.8</v>
@@ -3169,8 +3395,14 @@
       <c r="G56">
         <v>100</v>
       </c>
+      <c r="H56">
+        <v>98.778679999999994</v>
+      </c>
       <c r="I56">
         <v>0.19351818000000001</v>
+      </c>
+      <c r="J56">
+        <v>22.586580000000001</v>
       </c>
       <c r="K56" s="3">
         <v>12</v>
@@ -3199,16 +3431,16 @@
         <v>3.3058800000000002</v>
       </c>
       <c r="G57">
-        <v>74.73312</v>
+        <v>97.544219999999996</v>
       </c>
       <c r="H57">
-        <v>60.776707000000002</v>
+        <v>80.697890000000001</v>
       </c>
       <c r="I57">
         <v>2.4498441</v>
       </c>
       <c r="J57">
-        <v>3.4</v>
+        <v>7.2065099999999997</v>
       </c>
       <c r="K57" s="3">
         <v>27.2</v>
@@ -3237,13 +3469,16 @@
         <v>2.6939500000000001</v>
       </c>
       <c r="G58">
-        <v>30.395876000000001</v>
+        <v>95.251720000000006</v>
+      </c>
+      <c r="H58">
+        <v>86.936329999999998</v>
       </c>
       <c r="I58">
         <v>1.695433</v>
       </c>
       <c r="J58">
-        <v>3.3</v>
+        <v>11.50446</v>
       </c>
       <c r="K58" s="3">
         <v>37.6</v>
@@ -3272,13 +3507,16 @@
         <v>5.3488899999999999</v>
       </c>
       <c r="G59">
-        <v>94.289619999999999</v>
+        <v>99.645195000000001</v>
+      </c>
+      <c r="H59">
+        <v>90.411990000000003</v>
       </c>
       <c r="I59">
         <v>1.0655916000000001</v>
       </c>
       <c r="J59">
-        <v>2.8</v>
+        <v>25.264130000000002</v>
       </c>
       <c r="K59" s="5">
         <v>13.6</v>
@@ -3307,16 +3545,16 @@
         <v>4.2933199999999996</v>
       </c>
       <c r="G60">
-        <v>59.784176000000002</v>
+        <v>99.270210000000006</v>
       </c>
       <c r="H60">
-        <v>50.651252999999997</v>
+        <v>98.501710000000003</v>
       </c>
       <c r="I60">
         <v>2.0824756999999998</v>
       </c>
       <c r="J60">
-        <v>4.9000000000000004</v>
+        <v>37.364640000000001</v>
       </c>
       <c r="K60" s="3">
         <v>18.5</v>
@@ -3345,16 +3583,16 @@
         <v>6.1197900000000001</v>
       </c>
       <c r="G61">
-        <v>95.626599999999996</v>
+        <v>97.081469999999996</v>
       </c>
       <c r="H61">
-        <v>81.020799999999994</v>
+        <v>89.742009999999993</v>
       </c>
       <c r="I61">
         <v>0.33723667000000002</v>
       </c>
       <c r="J61">
-        <v>11.2</v>
+        <v>30.84253</v>
       </c>
       <c r="K61" s="5">
         <v>20.8</v>
@@ -3383,13 +3621,16 @@
         <v>7.3416199999999998</v>
       </c>
       <c r="G62">
-        <v>99.475104999999999</v>
+        <v>100</v>
       </c>
       <c r="H62">
-        <v>96.443504000000004</v>
+        <v>99.919039999999995</v>
       </c>
       <c r="I62">
         <v>0.26968402000000002</v>
+      </c>
+      <c r="J62">
+        <v>23.390789999999999</v>
       </c>
       <c r="K62" s="3">
         <v>21.2</v>
@@ -3418,13 +3659,16 @@
         <v>9.0275300000000005</v>
       </c>
       <c r="G63">
-        <v>96.70993</v>
+        <v>99.917029999999997</v>
       </c>
       <c r="H63">
-        <v>78.203479999999999</v>
+        <v>99.884969999999996</v>
       </c>
       <c r="I63">
         <v>0.23399895000000001</v>
+      </c>
+      <c r="J63">
+        <v>21.553149999999999</v>
       </c>
       <c r="K63" s="5">
         <v>23.1</v>
@@ -3452,14 +3696,17 @@
       <c r="F64">
         <v>7.7770599999999996</v>
       </c>
+      <c r="G64">
+        <v>97.895690000000002</v>
+      </c>
       <c r="H64">
-        <v>72.551060000000007</v>
+        <v>91.101900000000001</v>
       </c>
       <c r="I64">
         <v>1.8331343</v>
       </c>
       <c r="J64">
-        <v>5.3</v>
+        <v>34.1783</v>
       </c>
       <c r="K64" s="5">
         <v>9.4</v>
@@ -3488,16 +3735,16 @@
         <v>11.42184</v>
       </c>
       <c r="G65">
-        <v>98.727029999999999</v>
+        <v>99.183170000000004</v>
       </c>
       <c r="H65">
-        <v>99.172309999999996</v>
+        <v>99.945580000000007</v>
       </c>
       <c r="I65">
         <v>0.17704405000000001</v>
       </c>
       <c r="J65">
-        <v>1.9</v>
+        <v>4.9353699999999998</v>
       </c>
       <c r="K65" s="3">
         <v>20.100000000000001</v>
@@ -3526,16 +3773,16 @@
         <v>6.8281999999999998</v>
       </c>
       <c r="G66">
-        <v>87.119829999999993</v>
+        <v>99.382310000000004</v>
       </c>
       <c r="H66">
-        <v>79.907120000000006</v>
+        <v>96.520319999999998</v>
       </c>
       <c r="I66">
         <v>1.2239994000000001</v>
       </c>
       <c r="J66">
-        <v>9.5</v>
+        <v>35.61215</v>
       </c>
       <c r="K66" s="5">
         <v>34.799999999999997</v>
@@ -3564,13 +3811,16 @@
         <v>3.7402700000000002</v>
       </c>
       <c r="G67">
-        <v>91.534850000000006</v>
+        <v>99.822890000000001</v>
+      </c>
+      <c r="H67">
+        <v>97.948875000000001</v>
       </c>
       <c r="I67">
         <v>0.75849230000000001</v>
       </c>
       <c r="J67">
-        <v>8.6</v>
+        <v>19.343109999999999</v>
       </c>
       <c r="K67" s="3">
         <v>23.2</v>
@@ -3598,14 +3848,17 @@
       <c r="F68">
         <v>4.3260399999999999</v>
       </c>
+      <c r="G68">
+        <v>73.500349999999997</v>
+      </c>
       <c r="H68">
-        <v>35.247419999999998</v>
+        <v>40.170338000000001</v>
       </c>
       <c r="I68">
         <v>3.4725510000000002</v>
       </c>
       <c r="J68">
-        <v>4</v>
+        <v>11.04457</v>
       </c>
       <c r="K68" s="3">
         <v>11.1</v>
@@ -3643,7 +3896,7 @@
         <v>0.7577836</v>
       </c>
       <c r="J69">
-        <v>10</v>
+        <v>45.364559999999997</v>
       </c>
       <c r="K69" s="5">
         <v>17.899999999999999</v>
@@ -3672,16 +3925,16 @@
         <v>4.9225899999999996</v>
       </c>
       <c r="G70">
-        <v>75.401566000000003</v>
+        <v>96.626649999999998</v>
       </c>
       <c r="H70">
-        <v>92.86121</v>
+        <v>98.408874999999995</v>
       </c>
       <c r="I70">
         <v>1.493485</v>
       </c>
       <c r="J70">
-        <v>8.6999999999999993</v>
+        <v>24.413630000000001</v>
       </c>
       <c r="K70" s="5">
         <v>25.4</v>
@@ -3710,16 +3963,16 @@
         <v>2.0182500000000001</v>
       </c>
       <c r="G71">
-        <v>32.40307</v>
+        <v>94.460750000000004</v>
       </c>
       <c r="H71">
-        <v>69.909514999999999</v>
+        <v>86.995994999999994</v>
       </c>
       <c r="I71">
         <v>3.5165674999999998</v>
       </c>
       <c r="J71">
-        <v>3.5</v>
+        <v>7.7580200000000001</v>
       </c>
       <c r="K71" s="3">
         <v>31.8</v>
@@ -3748,7 +4001,7 @@
         <v>7.6216799999999996</v>
       </c>
       <c r="G72">
-        <v>96.969939999999994</v>
+        <v>99.423169999999999</v>
       </c>
       <c r="H72">
         <v>92.518683999999993</v>
@@ -3757,7 +4010,7 @@
         <v>0.25186170000000002</v>
       </c>
       <c r="J72">
-        <v>6.6</v>
+        <v>29.813929999999999</v>
       </c>
       <c r="K72" s="5">
         <v>37</v>
@@ -3786,16 +4039,16 @@
         <v>5.7350000000000003</v>
       </c>
       <c r="G73">
-        <v>47.7</v>
+        <v>100</v>
       </c>
       <c r="H73">
-        <v>25.67268</v>
+        <v>99.2</v>
       </c>
       <c r="I73">
         <v>1.5995820999999999</v>
       </c>
       <c r="J73">
-        <v>4.5</v>
+        <v>31.066549999999999</v>
       </c>
       <c r="K73" s="3">
         <v>38.200000000000003</v>
@@ -3823,11 +4076,17 @@
       <c r="F74">
         <v>13.47386</v>
       </c>
+      <c r="G74">
+        <v>86.669899999999998</v>
+      </c>
+      <c r="H74">
+        <v>22.76042</v>
+      </c>
       <c r="I74">
         <v>5.2567969999999997</v>
       </c>
       <c r="J74">
-        <v>5.3</v>
+        <v>16.205739999999999</v>
       </c>
       <c r="K74" s="3">
         <v>8.1999999999999993</v>
@@ -3856,16 +4115,16 @@
         <v>7.2433500000000004</v>
       </c>
       <c r="G75">
-        <v>96.713393999999994</v>
+        <v>99.917563999999999</v>
       </c>
       <c r="H75">
-        <v>96.384129999999999</v>
+        <v>96.384839999999997</v>
       </c>
       <c r="I75">
         <v>0.28410837</v>
       </c>
       <c r="J75">
-        <v>4.5</v>
+        <v>31.141590000000001</v>
       </c>
       <c r="K75" s="5">
         <v>32</v>
@@ -3894,13 +4153,16 @@
         <v>5.5515499999999998</v>
       </c>
       <c r="G76">
-        <v>99.649479999999997</v>
+        <v>100</v>
       </c>
       <c r="H76">
-        <v>96.013149999999996</v>
+        <v>97.603229999999996</v>
       </c>
       <c r="I76">
         <v>0.19888467000000001</v>
+      </c>
+      <c r="J76">
+        <v>20.211089999999999</v>
       </c>
       <c r="K76" s="3">
         <v>21.1</v>
@@ -3926,7 +4188,10 @@
         <v>100</v>
       </c>
       <c r="H77">
-        <v>77.948239999999998</v>
+        <v>100</v>
+      </c>
+      <c r="J77" t="s">
+        <v>201</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="9" t="s">
@@ -3953,16 +4218,16 @@
         <v>3.2502300000000002</v>
       </c>
       <c r="G78">
-        <v>21.670252000000001</v>
+        <v>59.426913999999996</v>
       </c>
       <c r="H78">
-        <v>12.756364</v>
+        <v>15.288389</v>
       </c>
       <c r="I78">
         <v>4.4175050000000002</v>
       </c>
       <c r="J78">
-        <v>1.9</v>
+        <v>3.84666</v>
       </c>
       <c r="K78" s="3">
         <v>27.8</v>
@@ -3991,16 +4256,16 @@
         <v>6.5002399999999998</v>
       </c>
       <c r="G79">
-        <v>17.925757999999998</v>
+        <v>93.15164</v>
       </c>
       <c r="H79">
-        <v>46.172412999999999</v>
+        <v>49.236877</v>
       </c>
       <c r="I79">
         <v>2.936188</v>
       </c>
       <c r="J79">
-        <v>3.9</v>
+        <v>6.3734799999999998</v>
       </c>
       <c r="K79" s="5">
         <v>10.8</v>
@@ -4029,16 +4294,16 @@
         <v>3.9059200000000001</v>
       </c>
       <c r="G80">
-        <v>94.620469999999997</v>
+        <v>98.24776</v>
       </c>
       <c r="H80">
-        <v>85.577065000000005</v>
+        <v>96.019139999999993</v>
       </c>
       <c r="I80">
         <v>0.67527722999999995</v>
       </c>
       <c r="J80">
-        <v>5.4</v>
+        <v>22.404920000000001</v>
       </c>
       <c r="K80" s="5">
         <v>22.5</v>
@@ -4066,14 +4331,17 @@
       <c r="F81">
         <v>3.6728499999999999</v>
       </c>
+      <c r="G81">
+        <v>89.714950000000002</v>
+      </c>
       <c r="H81">
-        <v>19.540842000000001</v>
+        <v>46.448585999999999</v>
       </c>
       <c r="I81">
         <v>5.7553429999999999</v>
       </c>
       <c r="J81">
-        <v>1.2</v>
+        <v>9.9528700000000008</v>
       </c>
       <c r="K81" s="5">
         <v>8.3000000000000007</v>
@@ -4102,7 +4370,7 @@
         <v>9.5237700000000007</v>
       </c>
       <c r="G82">
-        <v>99.837810000000005</v>
+        <v>100</v>
       </c>
       <c r="H82">
         <v>100</v>
@@ -4111,7 +4379,7 @@
         <v>0.48409187999999997</v>
       </c>
       <c r="J82">
-        <v>10</v>
+        <v>34.620620000000002</v>
       </c>
       <c r="K82" s="3">
         <v>24</v>
@@ -4139,11 +4407,17 @@
       <c r="F83">
         <v>4.4839000000000002</v>
       </c>
+      <c r="G83">
+        <v>88.648759999999996</v>
+      </c>
+      <c r="H83">
+        <v>58.260834000000003</v>
+      </c>
       <c r="I83">
         <v>3.1021063</v>
       </c>
       <c r="J83">
-        <v>1.5</v>
+        <v>20.841889999999999</v>
       </c>
       <c r="K83" s="3">
         <v>10.7</v>
@@ -4171,11 +4445,17 @@
       <c r="F84">
         <v>5.8238200000000004</v>
       </c>
+      <c r="G84">
+        <v>99.902410000000003</v>
+      </c>
+      <c r="H84">
+        <v>97.090410000000006</v>
+      </c>
       <c r="I84">
         <v>1.3521817</v>
       </c>
       <c r="J84">
-        <v>4.3</v>
+        <v>19.470770000000002</v>
       </c>
       <c r="K84" s="3">
         <v>20.2</v>
@@ -4204,16 +4484,16 @@
         <v>5.7214499999999999</v>
       </c>
       <c r="G85">
-        <v>42.90972</v>
+        <v>99.409520000000001</v>
       </c>
       <c r="H85">
-        <v>62.713284000000002</v>
+        <v>92.978454999999997</v>
       </c>
       <c r="I85">
         <v>1.0759847</v>
       </c>
       <c r="J85">
-        <v>7.2</v>
+        <v>36.086030000000001</v>
       </c>
       <c r="K85" s="5">
         <v>13.1</v>
@@ -4242,13 +4522,16 @@
         <v>6.9650499999999997</v>
       </c>
       <c r="G86">
-        <v>75.448610000000002</v>
+        <v>93.823160000000001</v>
+      </c>
+      <c r="H86">
+        <v>86.309430000000006</v>
       </c>
       <c r="I86">
         <v>1.3492512000000001</v>
       </c>
       <c r="J86">
-        <v>3.7</v>
+        <v>25.645040000000002</v>
       </c>
       <c r="K86" s="3">
         <v>29</v>
@@ -4277,16 +4560,16 @@
         <v>8.8516999999999992</v>
       </c>
       <c r="G87">
-        <v>42.247512999999998</v>
+        <v>90.875045999999998</v>
       </c>
       <c r="H87">
-        <v>68.644745</v>
+        <v>72.885170000000002</v>
       </c>
       <c r="I87">
         <v>1.1371926000000001</v>
       </c>
       <c r="J87">
-        <v>12</v>
+        <v>23.988009999999999</v>
       </c>
       <c r="K87" s="3">
         <v>29.4</v>
@@ -4315,16 +4598,16 @@
         <v>10.922420000000001</v>
       </c>
       <c r="G88">
-        <v>85.481185999999994</v>
+        <v>99.834770000000006</v>
       </c>
       <c r="H88">
-        <v>49.753700000000002</v>
+        <v>97.829790000000003</v>
       </c>
       <c r="I88">
         <v>0.21079861999999999</v>
       </c>
       <c r="J88">
-        <v>8.6</v>
+        <v>21.052119999999999</v>
       </c>
       <c r="K88" s="3">
         <v>31.4</v>
@@ -4353,16 +4636,16 @@
         <v>5.6804899999999998</v>
       </c>
       <c r="G89">
-        <v>79.139579999999995</v>
+        <v>95.057755</v>
       </c>
       <c r="H89">
-        <v>8.5373210000000004</v>
+        <v>87.647559999999999</v>
       </c>
       <c r="I89">
         <v>1.5491406000000001</v>
       </c>
       <c r="J89">
-        <v>4.4000000000000004</v>
+        <v>22.127669999999998</v>
       </c>
       <c r="K89" s="3">
         <v>14.5</v>
@@ -4391,16 +4674,16 @@
         <v>8.7771799999999995</v>
       </c>
       <c r="G90">
-        <v>26.435611999999999</v>
+        <v>73.411159999999995</v>
       </c>
       <c r="H90">
-        <v>32.723236</v>
+        <v>37.257483999999998</v>
       </c>
       <c r="I90">
         <v>4.5415409999999996</v>
       </c>
       <c r="J90">
-        <v>4.3</v>
+        <v>8.7818000000000005</v>
       </c>
       <c r="K90" s="3">
         <v>14.3</v>
@@ -4429,16 +4712,16 @@
         <v>5.2047600000000003</v>
       </c>
       <c r="G91">
-        <v>59.647182000000001</v>
+        <v>86.358410000000006</v>
       </c>
       <c r="H91">
-        <v>60.575133999999998</v>
+        <v>74.156189999999995</v>
       </c>
       <c r="I91">
         <v>3.4105905999999999</v>
       </c>
       <c r="J91">
-        <v>0.7</v>
+        <v>7.5405800000000003</v>
       </c>
       <c r="K91" s="3">
         <v>44.1</v>
@@ -4467,16 +4750,16 @@
         <v>18.170310000000001</v>
       </c>
       <c r="G92">
-        <v>18.662533</v>
+        <v>98.391689999999997</v>
       </c>
       <c r="H92">
-        <v>33.893374999999999</v>
+        <v>70.970929999999996</v>
       </c>
       <c r="I92">
         <v>0.82916809999999996</v>
       </c>
       <c r="J92">
-        <v>7.7</v>
+        <v>70.182860000000005</v>
       </c>
       <c r="K92" s="3">
         <v>48.5</v>
@@ -4505,16 +4788,16 @@
         <v>6.6558900000000003</v>
       </c>
       <c r="G93">
-        <v>16.349014</v>
+        <v>96.439790000000002</v>
       </c>
       <c r="H93">
-        <v>51.172085000000003</v>
+        <v>82.587789999999998</v>
       </c>
       <c r="I93">
         <v>2.329647</v>
       </c>
       <c r="J93">
-        <v>1.8</v>
+        <v>6.5755400000000002</v>
       </c>
       <c r="K93" s="3">
         <v>30.4</v>
@@ -4543,16 +4826,16 @@
         <v>10.100680000000001</v>
       </c>
       <c r="G94">
-        <v>99.961089999999999</v>
+        <v>100</v>
       </c>
       <c r="H94">
-        <v>97.497820000000004</v>
+        <v>97.663229999999999</v>
       </c>
       <c r="I94">
         <v>0.34663653</v>
       </c>
       <c r="J94">
-        <v>5.3</v>
+        <v>16.910879999999999</v>
       </c>
       <c r="K94" s="3">
         <v>22.2</v>
@@ -4584,10 +4867,13 @@
         <v>100</v>
       </c>
       <c r="H95">
-        <v>88.79965</v>
+        <v>100</v>
       </c>
       <c r="I95">
         <v>0.39842337</v>
+      </c>
+      <c r="J95">
+        <v>34.245359999999998</v>
       </c>
       <c r="K95" s="3">
         <v>13.7</v>
@@ -4615,14 +4901,17 @@
       <c r="F96">
         <v>4.3525999999999998</v>
       </c>
+      <c r="G96">
+        <v>68.996440000000007</v>
+      </c>
       <c r="H96">
-        <v>9.2176399999999994</v>
+        <v>15.87229</v>
       </c>
       <c r="I96">
         <v>6.7361474000000001</v>
       </c>
       <c r="J96">
-        <v>2</v>
+        <v>5.3259400000000001</v>
       </c>
       <c r="K96" s="3">
         <v>7.4</v>
@@ -4651,16 +4940,16 @@
         <v>4.2709000000000001</v>
       </c>
       <c r="G97">
-        <v>29.465140000000002</v>
+        <v>84.982079999999996</v>
       </c>
       <c r="H97">
-        <v>32.131459999999997</v>
+        <v>47.715580000000003</v>
       </c>
       <c r="I97">
         <v>6.0097512999999996</v>
       </c>
       <c r="J97">
-        <v>1.5</v>
+        <v>10.836690000000001</v>
       </c>
       <c r="K97" s="3">
         <v>3.7</v>
@@ -4680,13 +4969,16 @@
         <v>14</v>
       </c>
       <c r="G98">
-        <v>66.612139999999997</v>
+        <v>94.598349999999996</v>
+      </c>
+      <c r="H98">
+        <v>84.818449999999999</v>
       </c>
       <c r="I98">
         <v>1.4535499999999999</v>
       </c>
       <c r="J98">
-        <v>3.1</v>
+        <v>10.86703</v>
       </c>
       <c r="K98" s="3">
         <v>17.399999999999999</v>
@@ -4715,16 +5007,16 @@
         <v>7.6204099999999997</v>
       </c>
       <c r="G99">
-        <v>80.752396000000005</v>
+        <v>99.77561</v>
       </c>
       <c r="H99">
-        <v>12.14658</v>
+        <v>98.989400000000003</v>
       </c>
       <c r="I99">
         <v>0.28481832000000001</v>
       </c>
       <c r="J99">
-        <v>11.5</v>
+        <v>30.648800000000001</v>
       </c>
       <c r="K99" s="3">
         <v>45.4</v>
@@ -4753,13 +5045,16 @@
         <v>7.9480300000000002</v>
       </c>
       <c r="G100">
-        <v>99.090453999999994</v>
+        <v>99.999989999999997</v>
       </c>
       <c r="H100">
-        <v>77.871123999999995</v>
+        <v>98.048010000000005</v>
       </c>
       <c r="I100">
         <v>0.19348931</v>
+      </c>
+      <c r="J100">
+        <v>19.765049999999999</v>
       </c>
       <c r="K100" s="3">
         <v>16.2</v>
@@ -4788,13 +5083,16 @@
         <v>2.91622</v>
       </c>
       <c r="G101">
-        <v>90.981660000000005</v>
+        <v>99.754419999999996</v>
+      </c>
+      <c r="H101">
+        <v>99.320779999999999</v>
       </c>
       <c r="I101">
         <v>0.83656204000000001</v>
       </c>
       <c r="J101">
-        <v>8</v>
+        <v>30.186879999999999</v>
       </c>
       <c r="K101" s="3">
         <v>8</v>
@@ -4823,13 +5121,16 @@
         <v>2.9043399999999999</v>
       </c>
       <c r="G102">
-        <v>44.971305999999998</v>
+        <v>95.130880000000005</v>
+      </c>
+      <c r="H102">
+        <v>71.824325999999999</v>
       </c>
       <c r="I102">
         <v>5.012194</v>
       </c>
       <c r="J102">
-        <v>2.2999999999999998</v>
+        <v>21.847449999999998</v>
       </c>
       <c r="K102" s="3">
         <v>20.2</v>
@@ -4858,10 +5159,16 @@
         <v>14.28556</v>
       </c>
       <c r="G103">
-        <v>90.601200000000006</v>
+        <v>99.529970000000006</v>
+      </c>
+      <c r="H103">
+        <v>99.021770000000004</v>
       </c>
       <c r="I103">
         <v>1.9114968000000001</v>
+      </c>
+      <c r="J103">
+        <v>42.203629999999997</v>
       </c>
       <c r="K103" s="3">
         <v>17.600000000000001</v>
@@ -4889,14 +5196,17 @@
       <c r="F104">
         <v>2.6182500000000002</v>
       </c>
+      <c r="G104">
+        <v>59.011580000000002</v>
+      </c>
       <c r="H104">
-        <v>16.386896</v>
+        <v>23.225791999999998</v>
       </c>
       <c r="I104">
         <v>3.1989812999999998</v>
       </c>
       <c r="J104">
-        <v>18.600000000000001</v>
+        <v>20.12462</v>
       </c>
       <c r="K104" s="3">
         <v>39.299999999999997</v>
@@ -4925,16 +5235,16 @@
         <v>7.7380399999999998</v>
       </c>
       <c r="G105">
-        <v>64.291695000000004</v>
+        <v>100</v>
       </c>
       <c r="H105">
-        <v>58.398246999999998</v>
+        <v>95.249179999999996</v>
       </c>
       <c r="I105">
         <v>1.5143610999999999</v>
       </c>
       <c r="J105">
-        <v>15.1</v>
+        <v>32.083390000000001</v>
       </c>
       <c r="K105" s="3">
         <v>11.5</v>
@@ -4963,16 +5273,16 @@
         <v>6.0930900000000001</v>
       </c>
       <c r="G106">
-        <v>50.185436000000003</v>
+        <v>95.624030000000005</v>
       </c>
       <c r="H106">
-        <v>54.34825</v>
+        <v>78.257159999999999</v>
       </c>
       <c r="I106">
         <v>1.3542430000000001</v>
       </c>
       <c r="J106">
-        <v>8.6999999999999993</v>
+        <v>27.184729999999998</v>
       </c>
       <c r="K106" s="3">
         <v>8.1</v>
@@ -5001,16 +5311,16 @@
         <v>5.1567600000000002</v>
       </c>
       <c r="G107">
-        <v>48.244143999999999</v>
+        <v>98.304940000000002</v>
       </c>
       <c r="H107">
-        <v>61.600166000000002</v>
+        <v>85.991294999999994</v>
       </c>
       <c r="I107">
         <v>2.2122204000000001</v>
       </c>
       <c r="J107">
-        <v>3.4</v>
+        <v>8.7360500000000005</v>
       </c>
       <c r="K107" s="3">
         <v>22.9</v>
@@ -5039,16 +5349,16 @@
         <v>6.3962599999999998</v>
       </c>
       <c r="G108">
-        <v>89.188630000000003</v>
+        <v>90.648480000000006</v>
       </c>
       <c r="H108">
-        <v>97.828810000000004</v>
+        <v>98.956695999999994</v>
       </c>
       <c r="I108">
         <v>0.37315816000000002</v>
       </c>
       <c r="J108">
-        <v>8.3000000000000007</v>
+        <v>31.41283</v>
       </c>
       <c r="K108" s="3">
         <v>24</v>
@@ -5077,16 +5387,16 @@
         <v>10.468830000000001</v>
       </c>
       <c r="G109">
-        <v>95.165053999999998</v>
+        <v>99.276219999999995</v>
       </c>
       <c r="H109">
-        <v>93.376090000000005</v>
+        <v>99.660210000000006</v>
       </c>
       <c r="I109">
         <v>0.25587981999999998</v>
       </c>
       <c r="J109">
-        <v>9.3000000000000007</v>
+        <v>27.061990000000002</v>
       </c>
       <c r="K109" s="3">
         <v>25.4</v>
@@ -5115,7 +5425,7 @@
         <v>2.1811199999999999</v>
       </c>
       <c r="G110">
-        <v>95.345245000000006</v>
+        <v>99.988975999999994</v>
       </c>
       <c r="H110">
         <v>99.936549999999997</v>
@@ -5124,7 +5434,7 @@
         <v>0.48727609999999999</v>
       </c>
       <c r="J110">
-        <v>8.8000000000000007</v>
+        <v>43.75553</v>
       </c>
       <c r="K110" s="3">
         <v>11.8</v>
@@ -5153,16 +5463,16 @@
         <v>5.7490100000000002</v>
       </c>
       <c r="G111">
-        <v>82.124120000000005</v>
+        <v>100</v>
       </c>
       <c r="H111">
-        <v>89.736335999999994</v>
+        <v>90.505529999999993</v>
       </c>
       <c r="I111">
         <v>0.53904039999999998</v>
       </c>
       <c r="J111">
-        <v>4.5</v>
+        <v>38.236280000000001</v>
       </c>
       <c r="K111" s="3">
         <v>28</v>
@@ -5191,16 +5501,16 @@
         <v>6.9198599999999999</v>
       </c>
       <c r="G112">
-        <v>76.186409999999995</v>
+        <v>97.476780000000005</v>
       </c>
       <c r="H112">
-        <v>57.845779999999998</v>
+        <v>91.58869</v>
       </c>
       <c r="I112">
         <v>0.3659559</v>
       </c>
       <c r="J112">
-        <v>8.6</v>
+        <v>28.049440000000001</v>
       </c>
       <c r="K112" s="3">
         <v>26.8</v>
@@ -5228,11 +5538,17 @@
       <c r="F113">
         <v>7.8792099999999996</v>
       </c>
+      <c r="G113">
+        <v>83.445946000000006</v>
+      </c>
+      <c r="H113">
+        <v>80.347565000000003</v>
+      </c>
       <c r="I113">
         <v>3.0479224</v>
       </c>
       <c r="J113">
-        <v>4.8</v>
+        <v>4.5690799999999996</v>
       </c>
       <c r="K113" s="3">
         <v>13.7</v>
@@ -5260,13 +5576,21 @@
       <c r="F114">
         <v>5.01938</v>
       </c>
+      <c r="G114">
+        <v>99.935640000000006</v>
+      </c>
+      <c r="H114" t="s">
+        <v>201</v>
+      </c>
       <c r="I114">
         <v>1.4253898</v>
       </c>
       <c r="J114">
-        <v>6.7</v>
-      </c>
-      <c r="K114" s="4"/>
+        <v>33.934519999999999</v>
+      </c>
+      <c r="K114" s="3">
+        <v>13.8</v>
+      </c>
       <c r="L114" s="9" t="s">
         <v>176</v>
       </c>
@@ -5291,16 +5615,16 @@
         <v>7.4641999999999999</v>
       </c>
       <c r="G115">
-        <v>36.530613000000002</v>
+        <v>98.19502</v>
       </c>
       <c r="H115">
-        <v>34.67098</v>
+        <v>48.60866</v>
       </c>
       <c r="I115">
         <v>0.94138980000000005</v>
       </c>
       <c r="J115">
-        <v>5.4</v>
+        <v>15.03851</v>
       </c>
       <c r="K115" s="3">
         <v>5.7</v>
@@ -5328,14 +5652,17 @@
       <c r="F116">
         <v>4.6246200000000002</v>
       </c>
+      <c r="G116">
+        <v>99.720146</v>
+      </c>
       <c r="H116">
-        <v>83.955759999999998</v>
+        <v>97.602410000000006</v>
       </c>
       <c r="I116">
         <v>0.48824595999999998</v>
       </c>
       <c r="J116">
-        <v>9.1</v>
+        <v>41.1081</v>
       </c>
       <c r="K116" s="3">
         <v>14.3</v>
@@ -5364,16 +5691,16 @@
         <v>4.06358</v>
       </c>
       <c r="G117">
-        <v>26.883120999999999</v>
+        <v>89.828469999999996</v>
       </c>
       <c r="H117">
-        <v>29.177824000000001</v>
+        <v>61.466132999999999</v>
       </c>
       <c r="I117">
         <v>3.020778</v>
       </c>
       <c r="J117">
-        <v>1.9</v>
+        <v>8.68215</v>
       </c>
       <c r="K117" s="3">
         <v>6.9</v>
@@ -5402,16 +5729,16 @@
         <v>9.6574299999999997</v>
       </c>
       <c r="G118">
-        <v>74.932810000000003</v>
+        <v>99.271125999999995</v>
       </c>
       <c r="H118">
-        <v>24.418210999999999</v>
+        <v>97.93477</v>
       </c>
       <c r="I118">
         <v>0.44578079999999998</v>
       </c>
       <c r="J118">
-        <v>11.5</v>
+        <v>26.05491</v>
       </c>
       <c r="K118" s="3">
         <v>39.799999999999997</v>
@@ -5440,13 +5767,16 @@
         <v>4.23752</v>
       </c>
       <c r="G119">
-        <v>64.587450000000004</v>
+        <v>97.553955000000002</v>
+      </c>
+      <c r="H119">
+        <v>99.7</v>
       </c>
       <c r="I119">
         <v>1.3132598</v>
       </c>
       <c r="J119">
-        <v>10.9</v>
+        <v>30.266950000000001</v>
       </c>
       <c r="K119" s="3">
         <v>20.2</v>
@@ -5475,16 +5805,16 @@
         <v>7.9475199999999999</v>
       </c>
       <c r="G120">
-        <v>10.609436000000001</v>
+        <v>74.402100000000004</v>
       </c>
       <c r="H120">
-        <v>16.10857</v>
+        <v>23.904871</v>
       </c>
       <c r="I120">
         <v>5.6168079999999998</v>
       </c>
       <c r="J120">
-        <v>4.5999999999999996</v>
+        <v>6.4752700000000001</v>
       </c>
       <c r="K120" s="3">
         <v>13.5</v>
@@ -5522,7 +5852,7 @@
         <v>0.17220704000000001</v>
       </c>
       <c r="J121">
-        <v>3.7</v>
+        <v>13.535920000000001</v>
       </c>
       <c r="K121" s="3">
         <v>16.5</v>
@@ -5551,13 +5881,16 @@
         <v>7.7306400000000002</v>
       </c>
       <c r="G122">
-        <v>99.513750000000002</v>
+        <v>100</v>
       </c>
       <c r="H122">
-        <v>83.331419999999994</v>
+        <v>97.539320000000004</v>
       </c>
       <c r="I122">
         <v>0.50790290000000005</v>
+      </c>
+      <c r="J122">
+        <v>30.280889999999999</v>
       </c>
       <c r="K122" s="3">
         <v>31.5</v>
@@ -5589,10 +5922,13 @@
         <v>99.574590000000001</v>
       </c>
       <c r="H123">
-        <v>84.336590000000001</v>
+        <v>98.311160000000001</v>
       </c>
       <c r="I123">
         <v>0.18290480000000001</v>
+      </c>
+      <c r="J123">
+        <v>22.204979999999999</v>
       </c>
       <c r="K123" s="3">
         <v>22</v>
@@ -5620,11 +5956,17 @@
       <c r="F124">
         <v>4.82369</v>
       </c>
+      <c r="G124">
+        <v>77.658240000000006</v>
+      </c>
+      <c r="H124">
+        <v>34.402569999999997</v>
+      </c>
       <c r="I124">
         <v>1.6518092</v>
       </c>
       <c r="J124">
-        <v>6</v>
+        <v>21.62689</v>
       </c>
       <c r="K124" s="3">
         <v>36.5</v>
@@ -5653,16 +5995,16 @@
         <v>8.7708700000000004</v>
       </c>
       <c r="G125">
-        <v>68.552080000000004</v>
+        <v>97.331500000000005</v>
       </c>
       <c r="H125">
-        <v>73.170169999999999</v>
+        <v>76.781630000000007</v>
       </c>
       <c r="I125">
         <v>2.441754</v>
       </c>
       <c r="J125">
-        <v>12.9</v>
+        <v>30.033760000000001</v>
       </c>
       <c r="K125" s="3">
         <v>20.3</v>
@@ -5691,16 +6033,16 @@
         <v>9.4341399999999993</v>
       </c>
       <c r="G126">
-        <v>99.262789999999995</v>
+        <v>99.979969999999994</v>
       </c>
       <c r="H126">
-        <v>99.344750000000005</v>
+        <v>99.745729999999995</v>
       </c>
       <c r="I126">
         <v>0.23041122999999999</v>
       </c>
       <c r="J126">
-        <v>5.5</v>
+        <v>6.7333400000000001</v>
       </c>
       <c r="K126" s="3">
         <v>20.8</v>
@@ -5729,13 +6071,16 @@
         <v>9.7382899999999992</v>
       </c>
       <c r="G127">
-        <v>99.474320000000006</v>
+        <v>99.924930000000003</v>
       </c>
       <c r="H127">
-        <v>88.281450000000007</v>
+        <v>99.918364999999994</v>
       </c>
       <c r="I127">
         <v>0.25875350000000003</v>
+      </c>
+      <c r="J127">
+        <v>19.167059999999999</v>
       </c>
       <c r="K127" s="3">
         <v>27.7</v>
@@ -5764,13 +6109,16 @@
         <v>4.3627000000000002</v>
       </c>
       <c r="G128">
-        <v>46.848576000000001</v>
+        <v>91.441299999999998</v>
+      </c>
+      <c r="H128">
+        <v>95.349189999999993</v>
       </c>
       <c r="I128">
         <v>0.53471599999999997</v>
       </c>
       <c r="J128">
-        <v>0.9</v>
+        <v>10.60543</v>
       </c>
       <c r="K128" s="3">
         <v>22</v>
@@ -5779,7 +6127,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>129</v>
       </c>
@@ -5802,11 +6150,14 @@
         <v>99.760239999999996</v>
       </c>
       <c r="H129">
-        <v>95.341579999999993</v>
+        <v>98.743679999999998</v>
       </c>
       <c r="I129">
         <v>0.20161277</v>
       </c>
+      <c r="J129">
+        <v>16.410299999999999</v>
+      </c>
       <c r="K129" s="3">
         <v>24</v>
       </c>
@@ -5814,7 +6165,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>130</v>
       </c>
@@ -5834,14 +6185,17 @@
         <v>11.706530000000001</v>
       </c>
       <c r="G130">
-        <v>96.7</v>
+        <v>100</v>
       </c>
       <c r="H130">
-        <v>99.686065999999997</v>
+        <v>99.899870000000007</v>
       </c>
       <c r="I130">
         <v>0.34872866000000002</v>
       </c>
+      <c r="J130">
+        <v>13.740159999999999</v>
+      </c>
       <c r="K130" s="3">
         <v>25.5</v>
       </c>
@@ -5849,7 +6203,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>131</v>
       </c>
@@ -5869,16 +6223,16 @@
         <v>3.1119599999999998</v>
       </c>
       <c r="G131">
-        <v>30.639731999999999</v>
+        <v>75.826329999999999</v>
       </c>
       <c r="H131">
-        <v>27.464009999999998</v>
+        <v>35.682499999999997</v>
       </c>
       <c r="I131">
         <v>2.9932729999999999</v>
       </c>
       <c r="J131">
-        <v>4.4000000000000004</v>
+        <v>11.39353</v>
       </c>
       <c r="K131" s="3">
         <v>8.6999999999999993</v>
@@ -5887,7 +6241,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>132</v>
       </c>
@@ -5906,14 +6260,17 @@
       <c r="F132">
         <v>5.3547099999999999</v>
       </c>
+      <c r="G132">
+        <v>100</v>
+      </c>
       <c r="H132">
-        <v>26.361675000000002</v>
+        <v>99.038535999999993</v>
       </c>
       <c r="I132">
         <v>0.80478689999999997</v>
       </c>
       <c r="J132">
-        <v>9.9</v>
+        <v>14.50924</v>
       </c>
       <c r="K132" s="3">
         <v>22.1</v>
@@ -5922,7 +6279,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>133</v>
       </c>
@@ -5942,16 +6299,16 @@
         <v>6.0413399999999999</v>
       </c>
       <c r="G133">
-        <v>20.200379999999999</v>
+        <v>80.984089999999995</v>
       </c>
       <c r="H133">
-        <v>13.0045395</v>
+        <v>25.029747</v>
       </c>
       <c r="I133">
         <v>3.5851312000000002</v>
       </c>
       <c r="J133">
-        <v>3</v>
+        <v>10.449780000000001</v>
       </c>
       <c r="K133" s="3">
         <v>6.8</v>
@@ -5960,7 +6317,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>134</v>
       </c>
@@ -5980,23 +6337,23 @@
         <v>6.4310600000000004</v>
       </c>
       <c r="G134">
-        <v>69.351249999999993</v>
+        <v>99.501334999999997</v>
       </c>
       <c r="H134">
-        <v>37.915768</v>
+        <v>94.190703999999997</v>
       </c>
       <c r="I134">
         <v>1.7211430000000001</v>
       </c>
       <c r="J134">
-        <v>15</v>
+        <v>29.150950000000002</v>
       </c>
       <c r="K134" s="4"/>
       <c r="L134" s="9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>135</v>
       </c>
@@ -6016,16 +6373,16 @@
         <v>6.9638</v>
       </c>
       <c r="G135">
-        <v>66.378979999999999</v>
+        <v>98.434105000000002</v>
       </c>
       <c r="H135">
-        <v>79.486459999999994</v>
+        <v>97.984920000000002</v>
       </c>
       <c r="I135">
         <v>1.0555985000000001</v>
       </c>
       <c r="J135">
-        <v>17.399999999999999</v>
+        <v>28.263999999999999</v>
       </c>
       <c r="K135" s="3">
         <v>24.6</v>
@@ -6034,7 +6391,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>136</v>
       </c>
@@ -6054,13 +6411,16 @@
         <v>5.3710399999999998</v>
       </c>
       <c r="G136">
-        <v>94.834900000000005</v>
+        <v>99.928154000000006</v>
+      </c>
+      <c r="H136">
+        <v>99.737319999999997</v>
       </c>
       <c r="I136">
         <v>3.1227909999999999</v>
       </c>
       <c r="J136">
-        <v>4.3</v>
+        <v>20.158200000000001</v>
       </c>
       <c r="K136" s="3">
         <v>5.5</v>
@@ -6069,7 +6429,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>137</v>
       </c>
@@ -6089,16 +6449,16 @@
         <v>4.3908899999999997</v>
       </c>
       <c r="G137">
-        <v>17.516196999999998</v>
+        <v>85.193179999999998</v>
       </c>
       <c r="H137">
-        <v>20.068232999999999</v>
+        <v>23.529322000000001</v>
       </c>
       <c r="I137">
         <v>2.7563070999999999</v>
       </c>
       <c r="J137">
-        <v>3.9</v>
+        <v>6.8849400000000003</v>
       </c>
       <c r="K137" s="3">
         <v>8.4</v>
@@ -6107,7 +6467,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>138</v>
       </c>
@@ -6124,16 +6484,16 @@
         <v>11.122738999999999</v>
       </c>
       <c r="G138">
-        <v>87.985730000000004</v>
+        <v>99.203710000000001</v>
       </c>
       <c r="H138">
-        <v>92.316924999999998</v>
+        <v>97.644360000000006</v>
       </c>
       <c r="I138">
         <v>0.77837920000000005</v>
       </c>
       <c r="J138">
-        <v>15.2</v>
+        <v>29.20289</v>
       </c>
       <c r="K138" s="3">
         <v>25.8</v>
@@ -6142,7 +6502,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>139</v>
       </c>
@@ -6162,20 +6522,28 @@
         <v>4.6755100000000001</v>
       </c>
       <c r="G139">
-        <v>98.639269999999996</v>
+        <v>100</v>
       </c>
       <c r="H139">
-        <v>98.449340000000007</v>
+        <v>99.08905</v>
       </c>
       <c r="I139">
         <v>0.39632215999999998</v>
       </c>
-      <c r="K139" s="4"/>
+      <c r="J139">
+        <v>31.54617</v>
+      </c>
+      <c r="K139" s="9">
+        <v>9</v>
+      </c>
       <c r="L139" s="9" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="O139">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>140</v>
       </c>
@@ -6195,16 +6563,16 @@
         <v>11.050879999999999</v>
       </c>
       <c r="G140">
-        <v>99.831969999999998</v>
+        <v>100</v>
       </c>
       <c r="H140">
-        <v>97.824650000000005</v>
+        <v>99.103719999999996</v>
       </c>
       <c r="I140">
         <v>0.39514723000000002</v>
       </c>
       <c r="J140">
-        <v>7.8</v>
+        <v>28.707080000000001</v>
       </c>
       <c r="K140" s="3">
         <v>15.4</v>
@@ -6213,7 +6581,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>141</v>
       </c>
@@ -6233,13 +6601,16 @@
         <v>16.49614</v>
       </c>
       <c r="G141">
-        <v>97.566185000000004</v>
+        <v>99.980500000000006</v>
+      </c>
+      <c r="H141">
+        <v>99.615120000000005</v>
       </c>
       <c r="I141">
         <v>0.54917382999999997</v>
       </c>
       <c r="J141">
-        <v>9.4</v>
+        <v>42.867870000000003</v>
       </c>
       <c r="K141" s="3">
         <v>23</v>
@@ -6248,7 +6619,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>142</v>
       </c>
@@ -6267,11 +6638,17 @@
       <c r="F142">
         <v>8.9453200000000006</v>
       </c>
+      <c r="G142">
+        <v>100</v>
+      </c>
+      <c r="H142">
+        <v>98.893389999999997</v>
+      </c>
       <c r="I142">
         <v>0.55142933000000005</v>
       </c>
       <c r="J142">
-        <v>12.7</v>
+        <v>34.667520000000003</v>
       </c>
       <c r="K142" s="3">
         <v>21.5</v>
@@ -6280,7 +6657,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>143</v>
       </c>
@@ -6300,16 +6677,16 @@
         <v>7.3632499999999999</v>
       </c>
       <c r="G143">
-        <v>80.884749999999997</v>
+        <v>98.578620000000001</v>
       </c>
       <c r="H143">
-        <v>74.572815000000006</v>
+        <v>96.427825999999996</v>
       </c>
       <c r="I143">
         <v>1.2668619999999999</v>
       </c>
       <c r="J143">
-        <v>5</v>
+        <v>28.516159999999999</v>
       </c>
       <c r="K143" s="3">
         <v>17.600000000000001</v>
@@ -6318,7 +6695,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>144</v>
       </c>
@@ -6338,13 +6715,16 @@
         <v>4.1474299999999999</v>
       </c>
       <c r="G144">
-        <v>19.118872</v>
+        <v>90.021900000000002</v>
+      </c>
+      <c r="H144">
+        <v>48.197356999999997</v>
       </c>
       <c r="I144">
         <v>1.4168050999999999</v>
       </c>
       <c r="J144">
-        <v>5.5</v>
+        <v>19.947569999999999</v>
       </c>
       <c r="K144" s="3">
         <v>17.8</v>
@@ -6373,16 +6753,16 @@
         <v>4.5889199999999999</v>
       </c>
       <c r="G145">
-        <v>58.074855999999997</v>
+        <v>98.160659999999993</v>
       </c>
       <c r="H145">
-        <v>44.392589999999998</v>
+        <v>94.089870000000005</v>
       </c>
       <c r="I145">
         <v>1.4011640000000001</v>
       </c>
       <c r="J145">
-        <v>9.8000000000000007</v>
+        <v>2.0817000000000001</v>
       </c>
       <c r="K145" s="3">
         <v>24.8</v>
@@ -6407,14 +6787,17 @@
       <c r="F146">
         <v>6.1866700000000003</v>
       </c>
+      <c r="G146">
+        <v>89.667496</v>
+      </c>
       <c r="H146">
-        <v>42.458347000000003</v>
+        <v>62.285975999999998</v>
       </c>
       <c r="I146">
         <v>3.4650888000000002</v>
       </c>
       <c r="J146">
-        <v>1.6</v>
+        <v>11.555339999999999</v>
       </c>
       <c r="K146" s="3">
         <v>20.3</v>
@@ -6442,11 +6825,17 @@
       <c r="F147">
         <v>5.2559199999999997</v>
       </c>
+      <c r="G147">
+        <v>79.314449999999994</v>
+      </c>
+      <c r="H147">
+        <v>36.739131999999998</v>
+      </c>
       <c r="I147">
         <v>3.0859264999999998</v>
       </c>
       <c r="J147">
-        <v>5.8</v>
+        <v>9.4169</v>
       </c>
       <c r="K147" s="3">
         <v>14.4</v>
@@ -6475,16 +6864,16 @@
         <v>3.6288100000000001</v>
       </c>
       <c r="G148">
-        <v>25.63607</v>
+        <v>81.218919999999997</v>
       </c>
       <c r="H148">
-        <v>23.589251999999998</v>
+        <v>34.628345000000003</v>
       </c>
       <c r="I148">
         <v>4.0572809999999997</v>
       </c>
       <c r="J148">
-        <v>3.6</v>
+        <v>12.427</v>
       </c>
       <c r="K148" s="3">
         <v>11.7</v>
@@ -6494,7 +6883,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:L148">
+  <conditionalFormatting sqref="A2:F148 H2:L138 H140:L148 H139:I139 L139">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Not found">
       <formula>NOT(ISERROR(SEARCH("Not found",A2)))</formula>
     </cfRule>
@@ -6505,4 +6894,228 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4659BA-5568-429E-A8FE-2BC8F6106AD4}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="9"/>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="23.08984375" customWidth="1"/>
+    <col min="5" max="5" width="57.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>200</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{35F64C56-59CA-4495-9B4D-E410FC420EDC}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{AECED25A-EF00-4DD9-8DAC-2F06E21941CA}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{E36C2F2B-8787-44D4-997F-DE9FD50D3BD3}"/>
+    <hyperlink ref="D4:D11" r:id="rId4" display="https://ourworldindata.org/" xr:uid="{755E57FC-800B-4E84-8257-CA22E6678DBA}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{2F24BB38-4617-405E-915D-9167ECE68FFF}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{6F0A37BA-69E0-4FF5-9B3F-5F5C2C863A69}"/>
+    <hyperlink ref="E5" r:id="rId7" xr:uid="{76B613DF-5BB0-49CE-8868-40983958B498}"/>
+    <hyperlink ref="E8" r:id="rId8" xr:uid="{13688C07-1096-4A8E-8A3C-8126DA718DD8}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{13C1F988-2D81-4008-A60F-604C49D41676}"/>
+    <hyperlink ref="E9" r:id="rId10" xr:uid="{83917970-F41B-47E7-94E5-631F6DEDB7CB}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{99C11904-1BA9-4101-A484-EB3F22644D13}"/>
+    <hyperlink ref="E2" r:id="rId12" xr:uid="{E8930845-E0E8-411F-B41A-451EBA86C09E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data Harapan Hidup.xlsx
+++ b/Data Harapan Hidup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\retno\Documents\MATERI KULIAH\Semester 4\ANALISIS REGRESI\DATA PROJEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F901C392-4BA7-4FF4-8381-FC56479B6ADF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFA7559-1851-4D3F-9A54-8C1D913E80F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{E28EBDF3-20E0-42C0-BEF8-7B277D9CC04F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="210">
   <si>
     <t>1. GDP per Kapita</t>
   </si>
@@ -662,9 +662,6 @@
   </si>
   <si>
     <t>Persen (%)</t>
-  </si>
-  <si>
-    <t>Not found</t>
   </si>
   <si>
     <t>https://ourworldindata.org/grapher/share-of-the-population-using-improved-water-sources-wash</t>
@@ -1274,11 +1271,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE99B62-C9DA-415D-91AE-1B3C95717267}">
   <dimension ref="A1:O148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1508,9 +1505,6 @@
       <c r="G6">
         <v>78.282669999999996</v>
       </c>
-      <c r="H6" t="s">
-        <v>201</v>
-      </c>
       <c r="I6">
         <v>3.82714</v>
       </c>
@@ -1541,12 +1535,6 @@
       <c r="F7">
         <v>9.8630499999999994</v>
       </c>
-      <c r="G7" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" t="s">
-        <v>201</v>
-      </c>
       <c r="I7">
         <v>0.81754959999999999</v>
       </c>
@@ -1731,12 +1719,6 @@
       <c r="F12">
         <v>7.21692</v>
       </c>
-      <c r="G12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" t="s">
-        <v>201</v>
-      </c>
       <c r="I12">
         <v>1.1365536000000001</v>
       </c>
@@ -2076,9 +2058,6 @@
       <c r="G21">
         <v>99.952060000000003</v>
       </c>
-      <c r="H21" t="s">
-        <v>201</v>
-      </c>
       <c r="I21">
         <v>0.53459184999999998</v>
       </c>
@@ -2570,9 +2549,6 @@
       <c r="G34">
         <v>99.902860000000004</v>
       </c>
-      <c r="H34" t="s">
-        <v>201</v>
-      </c>
       <c r="I34">
         <v>0.38625556</v>
       </c>
@@ -3325,9 +3301,6 @@
       <c r="H54">
         <v>94.956010000000006</v>
       </c>
-      <c r="J54" t="s">
-        <v>201</v>
-      </c>
       <c r="K54" s="5">
         <v>9.4</v>
       </c>
@@ -4190,9 +4163,6 @@
       <c r="H77">
         <v>100</v>
       </c>
-      <c r="J77" t="s">
-        <v>201</v>
-      </c>
       <c r="K77" s="4"/>
       <c r="L77" s="9" t="s">
         <v>177</v>
@@ -5579,9 +5549,6 @@
       <c r="G114">
         <v>99.935640000000006</v>
       </c>
-      <c r="H114" t="s">
-        <v>201</v>
-      </c>
       <c r="I114">
         <v>1.4253898</v>
       </c>
@@ -6883,7 +6850,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:F148 H2:L138 H140:L148 H139:I139 L139">
+  <conditionalFormatting sqref="H2:L138 A2:F148 H139:I139 L139 H140:L148">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Not found">
       <formula>NOT(ISERROR(SEARCH("Not found",A2)))</formula>
     </cfRule>
@@ -6901,7 +6868,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6940,11 +6907,11 @@
       <c r="C2" t="s">
         <v>199</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>196</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -6995,7 +6962,7 @@
         <v>196</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -7012,7 +6979,7 @@
         <v>196</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -7029,7 +6996,7 @@
         <v>196</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -7046,7 +7013,7 @@
         <v>196</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -7063,7 +7030,7 @@
         <v>196</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -7080,7 +7047,7 @@
         <v>196</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -7091,13 +7058,13 @@
         <v>190</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>196</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -7115,6 +7082,7 @@
     <hyperlink ref="E9" r:id="rId10" xr:uid="{83917970-F41B-47E7-94E5-631F6DEDB7CB}"/>
     <hyperlink ref="E11" r:id="rId11" xr:uid="{99C11904-1BA9-4101-A484-EB3F22644D13}"/>
     <hyperlink ref="E2" r:id="rId12" xr:uid="{E8930845-E0E8-411F-B41A-451EBA86C09E}"/>
+    <hyperlink ref="D2" r:id="rId13" xr:uid="{BD472E51-7709-428E-A32F-1A2FF1392912}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data Harapan Hidup.xlsx
+++ b/Data Harapan Hidup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\retno\Documents\MATERI KULIAH\Semester 4\ANALISIS REGRESI\DATA PROJEK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECFA7559-1851-4D3F-9A54-8C1D913E80F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8637BEC0-8375-4863-A8BD-3DFCF199EDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{E28EBDF3-20E0-42C0-BEF8-7B277D9CC04F}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="209">
   <si>
     <t>1. GDP per Kapita</t>
   </si>
@@ -89,9 +89,6 @@
       </rPr>
       <t>)</t>
     </r>
-  </si>
-  <si>
-    <t>No.</t>
   </si>
   <si>
     <t>Negara</t>
@@ -753,14 +750,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="0"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -821,7 +818,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -830,31 +827,74 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1269,13 +1309,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DE99B62-C9DA-415D-91AE-1B3C95717267}">
-  <dimension ref="A1:O148"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C76" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="109" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomRight" activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1289,46 +1329,44 @@
     <col min="8" max="8" width="13.54296875" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="15.1796875" customWidth="1"/>
-    <col min="12" max="12" width="34" style="9" customWidth="1"/>
+    <col min="12" max="12" width="34" style="8" customWidth="1"/>
     <col min="13" max="13" width="27.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -1336,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D2">
         <v>1983.8126</v>
@@ -1365,8 +1403,8 @@
       <c r="K2" s="3">
         <v>23.3</v>
       </c>
-      <c r="L2" s="9" t="s">
-        <v>175</v>
+      <c r="L2" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -1374,10 +1412,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="D3">
         <v>17991.016</v>
@@ -1403,8 +1441,8 @@
       <c r="K3" s="3">
         <v>22.4</v>
       </c>
-      <c r="L3" s="9" t="s">
-        <v>176</v>
+      <c r="L3" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -1412,10 +1450,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="D4">
         <v>15159.324000000001</v>
@@ -1441,8 +1479,8 @@
       <c r="K4" s="3">
         <v>21</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>176</v>
+      <c r="L4" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -1450,10 +1488,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>64631.296999999999</v>
@@ -1479,8 +1517,8 @@
       <c r="K5" s="3">
         <v>31.8</v>
       </c>
-      <c r="L5" s="9" t="s">
-        <v>177</v>
+      <c r="L5" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -1488,10 +1526,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>7250.4030000000002</v>
@@ -1505,15 +1543,20 @@
       <c r="G6">
         <v>78.282669999999996</v>
       </c>
+      <c r="H6" s="12">
+        <v>66.476579999999998</v>
+      </c>
       <c r="I6">
         <v>3.82714</v>
       </c>
       <c r="J6">
         <v>10.535019999999999</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="9" t="s">
-        <v>178</v>
+      <c r="K6" s="13">
+        <v>15.83</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -1521,10 +1564,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D7">
         <v>27104.98</v>
@@ -1535,6 +1578,12 @@
       <c r="F7">
         <v>9.8630499999999994</v>
       </c>
+      <c r="G7">
+        <v>99.041374000000005</v>
+      </c>
+      <c r="H7" s="12">
+        <v>94.865799999999993</v>
+      </c>
       <c r="I7">
         <v>0.81754959999999999</v>
       </c>
@@ -1544,8 +1593,8 @@
       <c r="K7" s="3">
         <v>24.5</v>
       </c>
-      <c r="L7" s="9" t="s">
-        <v>176</v>
+      <c r="L7" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -1553,10 +1602,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>19402.752</v>
@@ -1582,8 +1631,8 @@
       <c r="K8" s="3">
         <v>25.5</v>
       </c>
-      <c r="L8" s="9" t="s">
-        <v>176</v>
+      <c r="L8" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -1591,10 +1640,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D9">
         <v>60461.156000000003</v>
@@ -1620,8 +1669,8 @@
       <c r="K9" s="3">
         <v>13.6</v>
       </c>
-      <c r="L9" s="9" t="s">
-        <v>177</v>
+      <c r="L9" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -1629,10 +1678,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>64394.09</v>
@@ -1658,8 +1707,8 @@
       <c r="K10" s="3">
         <v>26.4</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>177</v>
+      <c r="L10" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -1667,10 +1716,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>21310.738000000001</v>
@@ -1696,8 +1745,8 @@
       <c r="K11" s="3">
         <v>24</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>176</v>
+      <c r="L11" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -1705,10 +1754,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="D12">
         <v>35221.31</v>
@@ -1719,6 +1768,12 @@
       <c r="F12">
         <v>7.21692</v>
       </c>
+      <c r="G12">
+        <v>98.945260000000005</v>
+      </c>
+      <c r="H12" s="12">
+        <v>94.935599999999994</v>
+      </c>
       <c r="I12">
         <v>1.1365536000000001</v>
       </c>
@@ -1728,8 +1783,8 @@
       <c r="K12" s="3">
         <v>10.6</v>
       </c>
-      <c r="L12" s="9" t="s">
-        <v>177</v>
+      <c r="L12" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -1737,10 +1792,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>57819.906000000003</v>
@@ -1766,8 +1821,8 @@
       <c r="K13" s="3">
         <v>14.9</v>
       </c>
-      <c r="L13" s="9" t="s">
-        <v>177</v>
+      <c r="L13" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -1775,10 +1830,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>8242.3979999999992</v>
@@ -1804,8 +1859,8 @@
       <c r="K14" s="3">
         <v>34.700000000000003</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>178</v>
+      <c r="L14" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -1813,10 +1868,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15">
         <v>19224.463</v>
@@ -1842,8 +1897,8 @@
       <c r="K15" s="3">
         <v>8.5</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>177</v>
+      <c r="L15" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -1851,10 +1906,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>27782.437999999998</v>
@@ -1880,8 +1935,8 @@
       <c r="K16" s="3">
         <v>30.5</v>
       </c>
-      <c r="L16" s="9" t="s">
-        <v>176</v>
+      <c r="L16" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -1889,10 +1944,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>62920.644999999997</v>
@@ -1918,8 +1973,8 @@
       <c r="K17" s="3">
         <v>23.4</v>
       </c>
-      <c r="L17" s="9" t="s">
-        <v>177</v>
+      <c r="L17" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
@@ -1927,10 +1982,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18">
         <v>12455.296</v>
@@ -1956,8 +2011,8 @@
       <c r="K18" s="3">
         <v>8.5</v>
       </c>
-      <c r="L18" s="9" t="s">
-        <v>176</v>
+      <c r="L18" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
@@ -1965,10 +2020,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>3721.2125999999998</v>
@@ -1994,8 +2049,8 @@
       <c r="K19" s="3">
         <v>6.9</v>
       </c>
-      <c r="L19" s="9" t="s">
-        <v>178</v>
+      <c r="L19" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
@@ -2003,10 +2058,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20">
         <v>9843.9699999999993</v>
@@ -2032,8 +2087,8 @@
       <c r="K20" s="3">
         <v>12.7</v>
       </c>
-      <c r="L20" s="9" t="s">
-        <v>178</v>
+      <c r="L20" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
@@ -2041,10 +2096,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>19803.846000000001</v>
@@ -2058,6 +2113,9 @@
       <c r="G21">
         <v>99.952060000000003</v>
       </c>
+      <c r="H21" s="12">
+        <v>86.973849999999999</v>
+      </c>
       <c r="I21">
         <v>0.53459184999999998</v>
       </c>
@@ -2067,8 +2125,8 @@
       <c r="K21" s="3">
         <v>35</v>
       </c>
-      <c r="L21" s="9" t="s">
-        <v>176</v>
+      <c r="L21" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -2076,10 +2134,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>18932.48</v>
@@ -2105,8 +2163,8 @@
       <c r="K22" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="L22" s="9" t="s">
-        <v>176</v>
+      <c r="L22" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
@@ -2114,10 +2172,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
         <v>19079.812000000002</v>
@@ -2143,8 +2201,8 @@
       <c r="K23" s="3">
         <v>12.8</v>
       </c>
-      <c r="L23" s="9" t="s">
-        <v>176</v>
+      <c r="L23" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
@@ -2152,10 +2210,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>76616.7</v>
@@ -2181,8 +2239,8 @@
       <c r="K24" s="3">
         <v>16.2</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>177</v>
+      <c r="L24" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
@@ -2190,10 +2248,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>33139.938000000002</v>
@@ -2219,8 +2277,8 @@
       <c r="K25" s="3">
         <v>39</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>177</v>
+      <c r="L25" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2228,10 +2286,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>2482.0722999999998</v>
@@ -2257,8 +2315,8 @@
       <c r="K26" s="3">
         <v>14.3</v>
       </c>
-      <c r="L26" s="9" t="s">
-        <v>175</v>
+      <c r="L26" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
@@ -2266,10 +2324,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27">
         <v>828.58294999999998</v>
@@ -2295,8 +2353,8 @@
       <c r="K27" s="3">
         <v>11.8</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>175</v>
+      <c r="L27" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
@@ -2304,10 +2362,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28">
         <v>6695.2920000000004</v>
@@ -2333,8 +2391,8 @@
       <c r="K28" s="3">
         <v>21.1</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>178</v>
+      <c r="L28" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
@@ -2342,10 +2400,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>4870.5709999999999</v>
@@ -2371,8 +2429,8 @@
       <c r="K29" s="3">
         <v>7.3</v>
       </c>
-      <c r="L29" s="9" t="s">
-        <v>178</v>
+      <c r="L29" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -2380,10 +2438,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30">
         <v>57517.440000000002</v>
@@ -2409,8 +2467,8 @@
       <c r="K30" s="3">
         <v>13</v>
       </c>
-      <c r="L30" s="9" t="s">
-        <v>177</v>
+      <c r="L30" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
@@ -2418,10 +2476,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D31">
         <v>29563.678</v>
@@ -2447,8 +2505,8 @@
       <c r="K31" s="3">
         <v>29.2</v>
       </c>
-      <c r="L31" s="9" t="s">
-        <v>177</v>
+      <c r="L31" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
@@ -2456,10 +2514,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32">
         <v>22687.076000000001</v>
@@ -2485,8 +2543,8 @@
       <c r="K32" s="3">
         <v>25.6</v>
       </c>
-      <c r="L32" s="9" t="s">
-        <v>176</v>
+      <c r="L32" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -2494,10 +2552,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D33">
         <v>18382.998</v>
@@ -2523,8 +2581,8 @@
       <c r="K33" s="3">
         <v>8.5</v>
       </c>
-      <c r="L33" s="9" t="s">
-        <v>176</v>
+      <c r="L33" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -2532,10 +2590,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34">
         <v>41135.086000000003</v>
@@ -2549,6 +2607,9 @@
       <c r="G34">
         <v>99.902860000000004</v>
       </c>
+      <c r="H34" s="12">
+        <v>98.554599999999994</v>
+      </c>
       <c r="I34">
         <v>0.38625556</v>
       </c>
@@ -2558,8 +2619,8 @@
       <c r="K34" s="3">
         <v>36.9</v>
       </c>
-      <c r="L34" s="9" t="s">
-        <v>177</v>
+      <c r="L34" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -2567,10 +2628,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="D35">
+        <v>23700.056</v>
       </c>
       <c r="E35">
         <v>10.631489</v>
@@ -2593,8 +2657,8 @@
       <c r="K35" s="3">
         <v>17.899999999999999</v>
       </c>
-      <c r="L35" s="9" t="s">
-        <v>176</v>
+      <c r="L35" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -2602,10 +2666,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D36">
         <v>52190.875</v>
@@ -2631,8 +2695,8 @@
       <c r="K36" s="3">
         <v>35.1</v>
       </c>
-      <c r="L36" s="9" t="s">
-        <v>177</v>
+      <c r="L36" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
@@ -2640,10 +2704,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>47509.523000000001</v>
@@ -2669,8 +2733,8 @@
       <c r="K37" s="3">
         <v>30.7</v>
       </c>
-      <c r="L37" s="9" t="s">
-        <v>177</v>
+      <c r="L37" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
@@ -2678,10 +2742,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>71454.52</v>
@@ -2707,8 +2771,8 @@
       <c r="K38" s="3">
         <v>17.5</v>
       </c>
-      <c r="L38" s="9" t="s">
-        <v>177</v>
+      <c r="L38" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
@@ -2716,10 +2780,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39">
         <v>14343.019</v>
@@ -2745,8 +2809,8 @@
       <c r="K39" s="3">
         <v>11.3</v>
       </c>
-      <c r="L39" s="9" t="s">
-        <v>176</v>
+      <c r="L39" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -2754,10 +2818,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>16691.386999999999</v>
@@ -2783,8 +2847,8 @@
       <c r="K40" s="3">
         <v>24.3</v>
       </c>
-      <c r="L40" s="9" t="s">
-        <v>178</v>
+      <c r="L40" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -2792,10 +2856,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D41">
         <v>11424.645500000001</v>
@@ -2821,8 +2885,8 @@
       <c r="K41" s="3">
         <v>7.9</v>
       </c>
-      <c r="L41" s="9" t="s">
-        <v>176</v>
+      <c r="L41" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -2830,10 +2894,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>41706.519999999997</v>
@@ -2859,8 +2923,8 @@
       <c r="K42" s="3">
         <v>29.7</v>
       </c>
-      <c r="L42" s="9" t="s">
-        <v>177</v>
+      <c r="L42" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
@@ -2868,10 +2932,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43">
         <v>2757.9591999999998</v>
@@ -2897,8 +2961,8 @@
       <c r="K43" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L43" s="9" t="s">
-        <v>175</v>
+      <c r="L43" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -2906,10 +2970,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44">
         <v>56246.44</v>
@@ -2935,8 +2999,8 @@
       <c r="K44" s="3">
         <v>21.6</v>
       </c>
-      <c r="L44" s="9" t="s">
-        <v>177</v>
+      <c r="L44" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
@@ -2944,10 +3008,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D45">
         <v>54017.875</v>
@@ -2973,8 +3037,8 @@
       <c r="K45" s="3">
         <v>33.4</v>
       </c>
-      <c r="L45" s="9" t="s">
-        <v>177</v>
+      <c r="L45" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
@@ -2982,10 +3046,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46">
         <v>18702.690999999999</v>
@@ -3008,9 +3072,11 @@
       <c r="J46">
         <v>20.001619999999999</v>
       </c>
-      <c r="K46" s="4"/>
-      <c r="L46" s="9" t="s">
-        <v>176</v>
+      <c r="K46" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
@@ -3018,10 +3084,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>22590.53</v>
@@ -3047,8 +3113,8 @@
       <c r="K47" s="3">
         <v>31.7</v>
       </c>
-      <c r="L47" s="9" t="s">
-        <v>176</v>
+      <c r="L47" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3056,10 +3122,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D48">
         <v>62686.54</v>
@@ -3085,8 +3151,8 @@
       <c r="K48" s="3">
         <v>22</v>
       </c>
-      <c r="L48" s="9" t="s">
-        <v>177</v>
+      <c r="L48" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
@@ -3094,10 +3160,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49">
         <v>6808.5375999999997</v>
@@ -3123,8 +3189,8 @@
       <c r="K49" s="3">
         <v>3.5</v>
       </c>
-      <c r="L49" s="9" t="s">
-        <v>178</v>
+      <c r="L49" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
@@ -3132,10 +3198,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D50">
         <v>36854.504000000001</v>
@@ -3161,8 +3227,8 @@
       <c r="K50" s="3">
         <v>33.5</v>
       </c>
-      <c r="L50" s="9" t="s">
-        <v>177</v>
+      <c r="L50" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3170,10 +3236,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D51">
         <v>12384.948</v>
@@ -3196,11 +3262,11 @@
       <c r="J51">
         <v>25.199549999999999</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="4">
         <v>10.9</v>
       </c>
-      <c r="L51" s="9" t="s">
-        <v>176</v>
+      <c r="L51" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3208,10 +3274,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>2619.4135999999999</v>
@@ -3237,8 +3303,8 @@
       <c r="K52" s="3">
         <v>9</v>
       </c>
-      <c r="L52" s="9" t="s">
-        <v>175</v>
+      <c r="L52" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -3246,10 +3312,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D53">
         <v>2956.4621999999999</v>
@@ -3275,8 +3341,8 @@
       <c r="K53" s="3">
         <v>7.7</v>
       </c>
-      <c r="L53" s="9" t="s">
-        <v>178</v>
+      <c r="L53" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -3284,10 +3350,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54">
         <v>64428.73</v>
@@ -3295,17 +3361,26 @@
       <c r="E54">
         <v>12.35</v>
       </c>
+      <c r="F54" s="11">
+        <v>11.867900000000001</v>
+      </c>
       <c r="G54">
         <v>100</v>
       </c>
       <c r="H54">
         <v>94.956010000000006</v>
       </c>
-      <c r="K54" s="5">
+      <c r="I54">
+        <v>0.91866700000000001</v>
+      </c>
+      <c r="J54" s="12">
+        <v>26.499400000000001</v>
+      </c>
+      <c r="K54" s="4">
         <v>9.4</v>
       </c>
-      <c r="L54" s="9" t="s">
-        <v>177</v>
+      <c r="L54" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.35">
@@ -3313,10 +3388,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D55">
         <v>40368.589999999997</v>
@@ -3342,8 +3417,8 @@
       <c r="K55" s="3">
         <v>31.8</v>
       </c>
-      <c r="L55" s="9" t="s">
-        <v>177</v>
+      <c r="L55" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3351,10 +3426,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56">
         <v>67177.2</v>
@@ -3380,8 +3455,8 @@
       <c r="K56" s="3">
         <v>12</v>
       </c>
-      <c r="L56" s="9" t="s">
-        <v>177</v>
+      <c r="L56" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.35">
@@ -3389,10 +3464,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D57">
         <v>9301.7559999999994</v>
@@ -3418,8 +3493,8 @@
       <c r="K57" s="3">
         <v>27.2</v>
       </c>
-      <c r="L57" s="9" t="s">
-        <v>178</v>
+      <c r="L57" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3427,10 +3502,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D58">
         <v>13889.975</v>
@@ -3456,8 +3531,8 @@
       <c r="K58" s="3">
         <v>37.6</v>
       </c>
-      <c r="L58" s="9" t="s">
-        <v>176</v>
+      <c r="L58" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
@@ -3465,10 +3540,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D59">
         <v>15912.03</v>
@@ -3491,11 +3566,11 @@
       <c r="J59">
         <v>25.264130000000002</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="4">
         <v>13.6</v>
       </c>
-      <c r="L59" s="9" t="s">
-        <v>176</v>
+      <c r="L59" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.35">
@@ -3503,10 +3578,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D60">
         <v>13202.323</v>
@@ -3532,8 +3607,8 @@
       <c r="K60" s="3">
         <v>18.5</v>
       </c>
-      <c r="L60" s="9" t="s">
-        <v>176</v>
+      <c r="L60" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.35">
@@ -3541,10 +3616,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D61">
         <v>115505.336</v>
@@ -3567,11 +3642,11 @@
       <c r="J61">
         <v>30.84253</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="4">
         <v>20.8</v>
       </c>
-      <c r="L61" s="9" t="s">
-        <v>177</v>
+      <c r="L61" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.35">
@@ -3579,10 +3654,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D62">
         <v>47527.152000000002</v>
@@ -3608,8 +3683,8 @@
       <c r="K62" s="3">
         <v>21.2</v>
       </c>
-      <c r="L62" s="9" t="s">
-        <v>177</v>
+      <c r="L62" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
@@ -3617,10 +3692,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>52725.745999999999</v>
@@ -3643,11 +3718,11 @@
       <c r="J63">
         <v>21.553149999999999</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="4">
         <v>23.1</v>
       </c>
-      <c r="L63" s="9" t="s">
-        <v>177</v>
+      <c r="L63" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.35">
@@ -3655,10 +3730,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D64">
         <v>10332.055</v>
@@ -3681,11 +3756,11 @@
       <c r="J64">
         <v>34.1783</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="4">
         <v>9.4</v>
       </c>
-      <c r="L64" s="9" t="s">
-        <v>176</v>
+      <c r="L64" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.35">
@@ -3693,10 +3768,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D65">
         <v>45858.66</v>
@@ -3722,8 +3797,8 @@
       <c r="K65" s="3">
         <v>20.100000000000001</v>
       </c>
-      <c r="L65" s="9" t="s">
-        <v>177</v>
+      <c r="L65" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
@@ -3731,10 +3806,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66">
         <v>9381.3544999999995</v>
@@ -3757,11 +3832,11 @@
       <c r="J66">
         <v>35.61215</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="4">
         <v>34.799999999999997</v>
       </c>
-      <c r="L66" s="9" t="s">
-        <v>178</v>
+      <c r="L66" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.35">
@@ -3769,10 +3844,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D67">
         <v>34703.233999999997</v>
@@ -3798,8 +3873,8 @@
       <c r="K67" s="3">
         <v>23.2</v>
       </c>
-      <c r="L67" s="9" t="s">
-        <v>176</v>
+      <c r="L67" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
@@ -3807,10 +3882,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68">
         <v>5682.9893000000002</v>
@@ -3836,8 +3911,8 @@
       <c r="K68" s="3">
         <v>11.1</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>178</v>
+      <c r="L68" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.35">
@@ -3845,10 +3920,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>47777.402000000002</v>
@@ -3871,11 +3946,11 @@
       <c r="J69">
         <v>45.364559999999997</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="L69" s="9" t="s">
-        <v>177</v>
+      <c r="L69" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
@@ -3883,10 +3958,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>6575.7754000000004</v>
@@ -3909,11 +3984,11 @@
       <c r="J70">
         <v>24.413630000000001</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="4">
         <v>25.4</v>
       </c>
-      <c r="L70" s="9" t="s">
-        <v>178</v>
+      <c r="L70" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.35">
@@ -3921,10 +3996,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>8372.1560000000009</v>
@@ -3950,8 +4025,8 @@
       <c r="K71" s="3">
         <v>31.8</v>
       </c>
-      <c r="L71" s="9" t="s">
-        <v>178</v>
+      <c r="L71" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.35">
@@ -3959,10 +4034,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D72">
         <v>38796.550000000003</v>
@@ -3985,11 +4060,11 @@
       <c r="J72">
         <v>29.813929999999999</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="4">
         <v>37</v>
       </c>
-      <c r="L72" s="9" t="s">
-        <v>177</v>
+      <c r="L72" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.35">
@@ -3997,10 +4072,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D73">
         <v>11330.269</v>
@@ -4026,8 +4101,8 @@
       <c r="K73" s="3">
         <v>38.200000000000003</v>
       </c>
-      <c r="L73" s="9" t="s">
-        <v>178</v>
+      <c r="L73" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
@@ -4035,10 +4110,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D74">
         <v>1616.9237000000001</v>
@@ -4064,8 +4139,8 @@
       <c r="K74" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>175</v>
+      <c r="L74" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.35">
@@ -4073,10 +4148,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D75">
         <v>46159.707000000002</v>
@@ -4099,11 +4174,11 @@
       <c r="J75">
         <v>31.141590000000001</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="4">
         <v>32</v>
       </c>
-      <c r="L75" s="9" t="s">
-        <v>177</v>
+      <c r="L75" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
@@ -4111,10 +4186,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>129021.65</v>
@@ -4140,8 +4215,8 @@
       <c r="K76" s="3">
         <v>21.1</v>
       </c>
-      <c r="L76" s="9" t="s">
-        <v>177</v>
+      <c r="L76" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.35">
@@ -4149,23 +4224,37 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D77">
         <v>104961.92</v>
       </c>
+      <c r="E77">
+        <v>12.64589</v>
+      </c>
+      <c r="F77" s="11">
+        <v>10.443669999999999</v>
+      </c>
       <c r="G77">
         <v>100</v>
       </c>
       <c r="H77">
         <v>100</v>
       </c>
-      <c r="K77" s="4"/>
-      <c r="L77" s="9" t="s">
-        <v>177</v>
+      <c r="I77">
+        <v>0.23665</v>
+      </c>
+      <c r="J77" s="12">
+        <v>21.787759999999999</v>
+      </c>
+      <c r="K77" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="L77" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
@@ -4173,10 +4262,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D78">
         <v>1629.4609</v>
@@ -4202,8 +4291,8 @@
       <c r="K78" s="3">
         <v>27.8</v>
       </c>
-      <c r="L78" s="9" t="s">
-        <v>175</v>
+      <c r="L78" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.35">
@@ -4211,10 +4300,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D79">
         <v>1648.4365</v>
@@ -4237,11 +4326,11 @@
       <c r="J79">
         <v>6.3734799999999998</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="4">
         <v>10.8</v>
       </c>
-      <c r="L79" s="9" t="s">
-        <v>175</v>
+      <c r="L79" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.35">
@@ -4249,10 +4338,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D80">
         <v>32812.300000000003</v>
@@ -4275,11 +4364,11 @@
       <c r="J80">
         <v>22.404920000000001</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80" s="4">
         <v>22.5</v>
       </c>
-      <c r="L80" s="9" t="s">
-        <v>176</v>
+      <c r="L80" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
@@ -4287,10 +4376,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D81">
         <v>2854.8271</v>
@@ -4313,11 +4402,11 @@
       <c r="J81">
         <v>9.9528700000000008</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L81" s="9" t="s">
-        <v>175</v>
+      <c r="L81" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.35">
@@ -4325,10 +4414,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>59293.296999999999</v>
@@ -4354,8 +4443,8 @@
       <c r="K82" s="3">
         <v>24</v>
       </c>
-      <c r="L82" s="9" t="s">
-        <v>177</v>
+      <c r="L82" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.35">
@@ -4363,10 +4452,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D83">
         <v>6258.7110000000002</v>
@@ -4392,8 +4481,8 @@
       <c r="K83" s="3">
         <v>10.7</v>
       </c>
-      <c r="L83" s="9" t="s">
-        <v>178</v>
+      <c r="L83" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.35">
@@ -4401,10 +4490,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D84">
         <v>26060.732</v>
@@ -4430,8 +4519,8 @@
       <c r="K84" s="3">
         <v>20.2</v>
       </c>
-      <c r="L84" s="9" t="s">
-        <v>176</v>
+      <c r="L84" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
@@ -4439,10 +4528,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D85">
         <v>21905.178</v>
@@ -4465,11 +4554,11 @@
       <c r="J85">
         <v>36.086030000000001</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85" s="4">
         <v>13.1</v>
       </c>
-      <c r="L85" s="9" t="s">
-        <v>176</v>
+      <c r="L85" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.35">
@@ -4477,10 +4566,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D86">
         <v>15990.479499999999</v>
@@ -4506,8 +4595,8 @@
       <c r="K86" s="3">
         <v>29</v>
       </c>
-      <c r="L86" s="9" t="s">
-        <v>176</v>
+      <c r="L86" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.35">
@@ -4515,10 +4604,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D87">
         <v>16222.864</v>
@@ -4544,8 +4633,8 @@
       <c r="K87" s="3">
         <v>29.4</v>
       </c>
-      <c r="L87" s="9" t="s">
-        <v>176</v>
+      <c r="L87" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.35">
@@ -4553,10 +4642,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D88">
         <v>27043.328000000001</v>
@@ -4582,8 +4671,8 @@
       <c r="K88" s="3">
         <v>31.4</v>
       </c>
-      <c r="L88" s="9" t="s">
-        <v>176</v>
+      <c r="L88" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.35">
@@ -4591,10 +4680,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D89">
         <v>8868.7119999999995</v>
@@ -4620,8 +4709,8 @@
       <c r="K89" s="3">
         <v>14.5</v>
       </c>
-      <c r="L89" s="9" t="s">
-        <v>178</v>
+      <c r="L89" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.35">
@@ -4629,10 +4718,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D90">
         <v>1511.6365000000001</v>
@@ -4658,8 +4747,8 @@
       <c r="K90" s="3">
         <v>14.3</v>
       </c>
-      <c r="L90" s="9" t="s">
-        <v>175</v>
+      <c r="L90" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.35">
@@ -4667,10 +4756,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D91">
         <v>5364.1379999999999</v>
@@ -4696,8 +4785,8 @@
       <c r="K91" s="3">
         <v>44.1</v>
       </c>
-      <c r="L91" s="9" t="s">
-        <v>178</v>
+      <c r="L91" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.35">
@@ -4705,10 +4794,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D92">
         <v>12461.136</v>
@@ -4734,8 +4823,8 @@
       <c r="K92" s="3">
         <v>48.5</v>
       </c>
-      <c r="L92" s="9" t="s">
-        <v>177</v>
+      <c r="L92" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.35">
@@ -4743,10 +4832,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D93">
         <v>4861.2304999999997</v>
@@ -4772,8 +4861,8 @@
       <c r="K93" s="3">
         <v>30.4</v>
       </c>
-      <c r="L93" s="9" t="s">
-        <v>178</v>
+      <c r="L93" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.35">
@@ -4781,10 +4870,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D94">
         <v>70673.97</v>
@@ -4810,8 +4899,8 @@
       <c r="K94" s="3">
         <v>22.2</v>
       </c>
-      <c r="L94" s="9" t="s">
-        <v>177</v>
+      <c r="L94" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.35">
@@ -4819,10 +4908,10 @@
         <v>95</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D95">
         <v>49083.508000000002</v>
@@ -4848,8 +4937,8 @@
       <c r="K95" s="3">
         <v>13.7</v>
       </c>
-      <c r="L95" s="9" t="s">
-        <v>177</v>
+      <c r="L95" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.35">
@@ -4857,10 +4946,10 @@
         <v>96</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D96">
         <v>1689.5642</v>
@@ -4886,8 +4975,8 @@
       <c r="K96" s="3">
         <v>7.4</v>
       </c>
-      <c r="L96" s="9" t="s">
-        <v>175</v>
+      <c r="L96" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.35">
@@ -4895,10 +4984,10 @@
         <v>97</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D97">
         <v>5593.0565999999999</v>
@@ -4924,8 +5013,8 @@
       <c r="K97" s="3">
         <v>3.7</v>
       </c>
-      <c r="L97" s="9" t="s">
-        <v>178</v>
+      <c r="L97" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.35">
@@ -4933,10 +5022,19 @@
         <v>98</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>1857.0345</v>
+      </c>
+      <c r="E98">
+        <v>12.42</v>
+      </c>
+      <c r="F98" s="11">
+        <v>9.7324000000000002</v>
       </c>
       <c r="G98">
         <v>94.598349999999996</v>
@@ -4953,8 +5051,8 @@
       <c r="K98" s="3">
         <v>17.399999999999999</v>
       </c>
-      <c r="L98" s="9" t="s">
-        <v>175</v>
+      <c r="L98" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.35">
@@ -4962,10 +5060,10 @@
         <v>99</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D99">
         <v>23343.601999999999</v>
@@ -4991,8 +5089,8 @@
       <c r="K99" s="3">
         <v>45.4</v>
       </c>
-      <c r="L99" s="9" t="s">
-        <v>176</v>
+      <c r="L99" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.35">
@@ -5000,10 +5098,10 @@
         <v>100</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D100">
         <v>90085.554999999993</v>
@@ -5029,8 +5127,8 @@
       <c r="K100" s="3">
         <v>16.2</v>
       </c>
-      <c r="L100" s="9" t="s">
-        <v>177</v>
+      <c r="L100" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.35">
@@ -5038,10 +5136,10 @@
         <v>101</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D101">
         <v>37709.065999999999</v>
@@ -5067,8 +5165,8 @@
       <c r="K101" s="3">
         <v>8</v>
       </c>
-      <c r="L101" s="9" t="s">
-        <v>177</v>
+      <c r="L101" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.35">
@@ -5076,10 +5174,10 @@
         <v>102</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D102">
         <v>5439.1796999999997</v>
@@ -5105,8 +5203,8 @@
       <c r="K102" s="3">
         <v>20.2</v>
       </c>
-      <c r="L102" s="9" t="s">
-        <v>178</v>
+      <c r="L102" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.35">
@@ -5114,10 +5212,10 @@
         <v>103</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D103">
         <v>15796.535</v>
@@ -5143,8 +5241,8 @@
       <c r="K103" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="L103" s="9" t="s">
-        <v>177</v>
+      <c r="L103" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.35">
@@ -5152,10 +5250,10 @@
         <v>104</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D104">
         <v>4205.8477000000003</v>
@@ -5181,8 +5279,8 @@
       <c r="K104" s="3">
         <v>39.299999999999997</v>
       </c>
-      <c r="L104" s="9" t="s">
-        <v>178</v>
+      <c r="L104" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.35">
@@ -5190,10 +5288,10 @@
         <v>105</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D105">
         <v>15826.088</v>
@@ -5219,8 +5317,8 @@
       <c r="K105" s="3">
         <v>11.5</v>
       </c>
-      <c r="L105" s="9" t="s">
-        <v>176</v>
+      <c r="L105" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.35">
@@ -5228,10 +5326,10 @@
         <v>106</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106">
         <v>15327.582</v>
@@ -5257,8 +5355,8 @@
       <c r="K106" s="3">
         <v>8.1</v>
       </c>
-      <c r="L106" s="9" t="s">
-        <v>176</v>
+      <c r="L106" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.35">
@@ -5266,10 +5364,10 @@
         <v>107</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D107">
         <v>9898.5329999999994</v>
@@ -5295,8 +5393,8 @@
       <c r="K107" s="3">
         <v>22.9</v>
       </c>
-      <c r="L107" s="9" t="s">
-        <v>178</v>
+      <c r="L107" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.35">
@@ -5304,10 +5402,10 @@
         <v>108</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D108">
         <v>43672.766000000003</v>
@@ -5333,8 +5431,8 @@
       <c r="K108" s="3">
         <v>24</v>
       </c>
-      <c r="L108" s="9" t="s">
-        <v>177</v>
+      <c r="L108" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.35">
@@ -5342,10 +5440,10 @@
         <v>109</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D109">
         <v>41571.019999999997</v>
@@ -5371,8 +5469,8 @@
       <c r="K109" s="3">
         <v>25.4</v>
       </c>
-      <c r="L109" s="9" t="s">
-        <v>177</v>
+      <c r="L109" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.35">
@@ -5380,10 +5478,10 @@
         <v>110</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D110">
         <v>116159.14</v>
@@ -5409,8 +5507,8 @@
       <c r="K110" s="3">
         <v>11.8</v>
       </c>
-      <c r="L110" s="9" t="s">
-        <v>177</v>
+      <c r="L110" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.35">
@@ -5418,10 +5516,10 @@
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D111">
         <v>40301.5</v>
@@ -5447,8 +5545,8 @@
       <c r="K111" s="3">
         <v>28</v>
       </c>
-      <c r="L111" s="9" t="s">
-        <v>177</v>
+      <c r="L111" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.35">
@@ -5456,10 +5554,10 @@
         <v>112</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D112">
         <v>39887.339999999997</v>
@@ -5485,8 +5583,8 @@
       <c r="K112" s="3">
         <v>26.8</v>
       </c>
-      <c r="L112" s="9" t="s">
-        <v>177</v>
+      <c r="L112" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.35">
@@ -5494,10 +5592,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D113">
         <v>3062.9989999999998</v>
@@ -5523,8 +5621,8 @@
       <c r="K113" s="3">
         <v>13.7</v>
       </c>
-      <c r="L113" s="9" t="s">
-        <v>175</v>
+      <c r="L113" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.35">
@@ -5532,10 +5630,10 @@
         <v>114</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114">
         <v>23403.743999999999</v>
@@ -5549,6 +5647,9 @@
       <c r="G114">
         <v>99.935640000000006</v>
       </c>
+      <c r="H114" s="12">
+        <v>89.667500000000004</v>
+      </c>
       <c r="I114">
         <v>1.4253898</v>
       </c>
@@ -5558,8 +5659,8 @@
       <c r="K114" s="3">
         <v>13.8</v>
       </c>
-      <c r="L114" s="9" t="s">
-        <v>176</v>
+      <c r="L114" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.35">
@@ -5567,10 +5668,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D115">
         <v>5541.3019999999997</v>
@@ -5596,8 +5697,8 @@
       <c r="K115" s="3">
         <v>5.7</v>
       </c>
-      <c r="L115" s="9" t="s">
-        <v>178</v>
+      <c r="L115" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.35">
@@ -5605,10 +5706,10 @@
         <v>116</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D116">
         <v>64481.843999999997</v>
@@ -5634,8 +5735,8 @@
       <c r="K116" s="3">
         <v>14.3</v>
       </c>
-      <c r="L116" s="9" t="s">
-        <v>177</v>
+      <c r="L116" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.35">
@@ -5643,10 +5744,10 @@
         <v>117</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D117">
         <v>4304.7617</v>
@@ -5672,8 +5773,8 @@
       <c r="K117" s="3">
         <v>6.9</v>
       </c>
-      <c r="L117" s="9" t="s">
-        <v>178</v>
+      <c r="L117" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.35">
@@ -5681,10 +5782,10 @@
         <v>118</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D118">
         <v>25740.203000000001</v>
@@ -5710,8 +5811,8 @@
       <c r="K118" s="3">
         <v>39.799999999999997</v>
       </c>
-      <c r="L118" s="9" t="s">
-        <v>176</v>
+      <c r="L118" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.35">
@@ -5719,10 +5820,10 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D119">
         <v>28635.355</v>
@@ -5748,8 +5849,8 @@
       <c r="K119" s="3">
         <v>20.2</v>
       </c>
-      <c r="L119" s="9" t="s">
-        <v>177</v>
+      <c r="L119" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.35">
@@ -5757,10 +5858,10 @@
         <v>120</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D120">
         <v>3037.6765</v>
@@ -5786,8 +5887,8 @@
       <c r="K120" s="3">
         <v>13.5</v>
       </c>
-      <c r="L120" s="9" t="s">
-        <v>175</v>
+      <c r="L120" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.35">
@@ -5795,10 +5896,10 @@
         <v>121</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>129555.24</v>
@@ -5824,8 +5925,8 @@
       <c r="K121" s="3">
         <v>16.5</v>
       </c>
-      <c r="L121" s="9" t="s">
-        <v>177</v>
+      <c r="L121" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.35">
@@ -5833,10 +5934,10 @@
         <v>122</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D122">
         <v>39497.535000000003</v>
@@ -5862,8 +5963,8 @@
       <c r="K122" s="3">
         <v>31.5</v>
       </c>
-      <c r="L122" s="9" t="s">
-        <v>177</v>
+      <c r="L122" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.35">
@@ -5871,10 +5972,10 @@
         <v>123</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D123">
         <v>47868.387000000002</v>
@@ -5900,8 +6001,8 @@
       <c r="K123" s="3">
         <v>22</v>
       </c>
-      <c r="L123" s="9" t="s">
-        <v>177</v>
+      <c r="L123" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.35">
@@ -5909,10 +6010,10 @@
         <v>124</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D124">
         <v>2523.6190000000001</v>
@@ -5938,8 +6039,8 @@
       <c r="K124" s="3">
         <v>36.5</v>
       </c>
-      <c r="L124" s="9" t="s">
-        <v>178</v>
+      <c r="L124" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.35">
@@ -5947,10 +6048,10 @@
         <v>125</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D125">
         <v>13690.39</v>
@@ -5976,8 +6077,8 @@
       <c r="K125" s="3">
         <v>20.3</v>
       </c>
-      <c r="L125" s="9" t="s">
-        <v>176</v>
+      <c r="L125" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.35">
@@ -5985,10 +6086,10 @@
         <v>126</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D126">
         <v>50414.207000000002</v>
@@ -6014,8 +6115,8 @@
       <c r="K126" s="3">
         <v>20.8</v>
       </c>
-      <c r="L126" s="9" t="s">
-        <v>177</v>
+      <c r="L126" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.35">
@@ -6023,10 +6124,10 @@
         <v>127</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D127">
         <v>47341.17</v>
@@ -6052,8 +6153,8 @@
       <c r="K127" s="3">
         <v>27.7</v>
       </c>
-      <c r="L127" s="9" t="s">
-        <v>177</v>
+      <c r="L127" s="8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.35">
@@ -6061,10 +6162,10 @@
         <v>128</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D128">
         <v>13024.94</v>
@@ -6090,19 +6191,19 @@
       <c r="K128" s="3">
         <v>22</v>
       </c>
-      <c r="L128" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L128" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>129</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D129">
         <v>62845.483999999997</v>
@@ -6128,19 +6229,19 @@
       <c r="K129" s="3">
         <v>24</v>
       </c>
-      <c r="L129" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L129" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>130</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D130">
         <v>82302.05</v>
@@ -6166,19 +6267,19 @@
       <c r="K130" s="3">
         <v>25.5</v>
       </c>
-      <c r="L130" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L130" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>131</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D131">
         <v>3620.7935000000002</v>
@@ -6204,19 +6305,19 @@
       <c r="K131" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="L131" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L131" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>132</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D132">
         <v>21191.453000000001</v>
@@ -6242,19 +6343,19 @@
       <c r="K132" s="3">
         <v>22.1</v>
       </c>
-      <c r="L132" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L132" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>133</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D133">
         <v>2767.5165999999999</v>
@@ -6280,19 +6381,19 @@
       <c r="K133" s="3">
         <v>6.8</v>
       </c>
-      <c r="L133" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L133" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>134</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D134">
         <v>31193.916000000001</v>
@@ -6315,20 +6416,22 @@
       <c r="J134">
         <v>29.150950000000002</v>
       </c>
-      <c r="K134" s="4"/>
-      <c r="L134" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="K134" s="3">
+        <v>19</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>135</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D135">
         <v>12622.96</v>
@@ -6354,19 +6457,19 @@
       <c r="K135" s="3">
         <v>24.6</v>
       </c>
-      <c r="L135" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L135" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>136</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D136">
         <v>17866.403999999999</v>
@@ -6392,19 +6495,19 @@
       <c r="K136" s="3">
         <v>5.5</v>
       </c>
-      <c r="L136" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L136" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>137</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D137">
         <v>2791.0556999999999</v>
@@ -6430,19 +6533,19 @@
       <c r="K137" s="3">
         <v>8.4</v>
       </c>
-      <c r="L137" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L137" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>138</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D138">
         <v>15916.958000000001</v>
@@ -6450,6 +6553,9 @@
       <c r="E138">
         <v>11.122738999999999</v>
       </c>
+      <c r="F138" s="11">
+        <v>8.4984999999999999</v>
+      </c>
       <c r="G138">
         <v>99.203710000000001</v>
       </c>
@@ -6465,19 +6571,19 @@
       <c r="K138" s="3">
         <v>25.8</v>
       </c>
-      <c r="L138" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L138" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>139</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D139">
         <v>68577.539999999994</v>
@@ -6500,25 +6606,22 @@
       <c r="J139">
         <v>31.54617</v>
       </c>
-      <c r="K139" s="9">
+      <c r="K139" s="8">
         <v>9</v>
       </c>
-      <c r="L139" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="O139">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L139" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D140">
         <v>52502.913999999997</v>
@@ -6544,19 +6647,19 @@
       <c r="K140" s="3">
         <v>15.4</v>
       </c>
-      <c r="L140" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L140" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>141</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D141">
         <v>74158.720000000001</v>
@@ -6582,19 +6685,19 @@
       <c r="K141" s="3">
         <v>23</v>
       </c>
-      <c r="L141" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L141" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>142</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D142">
         <v>31059.254000000001</v>
@@ -6620,19 +6723,19 @@
       <c r="K142" s="3">
         <v>21.5</v>
       </c>
-      <c r="L142" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L142" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D143">
         <v>10007.686</v>
@@ -6658,19 +6761,19 @@
       <c r="K143" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="L143" s="9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="L143" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>144</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D144">
         <v>3118.3960000000002</v>
@@ -6696,8 +6799,8 @@
       <c r="K144" s="3">
         <v>17.8</v>
       </c>
-      <c r="L144" s="9" t="s">
-        <v>178</v>
+      <c r="L144" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.35">
@@ -6705,10 +6808,10 @@
         <v>145</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D145">
         <v>13545.934999999999</v>
@@ -6734,8 +6837,8 @@
       <c r="K145" s="3">
         <v>24.8</v>
       </c>
-      <c r="L145" s="9" t="s">
-        <v>178</v>
+      <c r="L145" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.35">
@@ -6743,10 +6846,13 @@
         <v>146</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D146">
+        <v>1967.0124000000001</v>
       </c>
       <c r="E146">
         <v>5.4841499999999996</v>
@@ -6769,8 +6875,8 @@
       <c r="K146" s="3">
         <v>20.3</v>
       </c>
-      <c r="L146" s="9" t="s">
-        <v>175</v>
+      <c r="L146" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.35">
@@ -6778,10 +6884,10 @@
         <v>147</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D147">
         <v>3673.4841000000001</v>
@@ -6807,8 +6913,8 @@
       <c r="K147" s="3">
         <v>14.4</v>
       </c>
-      <c r="L147" s="9" t="s">
-        <v>178</v>
+      <c r="L147" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.35">
@@ -6816,10 +6922,10 @@
         <v>148</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D148">
         <v>3442.2487999999998</v>
@@ -6845,17 +6951,27 @@
       <c r="K148" s="3">
         <v>11.7</v>
       </c>
-      <c r="L148" s="9" t="s">
-        <v>178</v>
+      <c r="L148" s="8" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H2:L138 A2:F148 H139:I139 L139 H140:L148">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Not found">
+  <conditionalFormatting sqref="A2:F148 H139:I139 L139 H140:L148 H2:L138">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Not found">
       <formula>NOT(ISERROR(SEARCH("Not found",A2)))</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="0" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(A2))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(G7))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(G12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6867,13 +6983,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF4659BA-5568-429E-A8FE-2BC8F6106AD4}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="83" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="9"/>
+    <col min="1" max="1" width="8.7265625" style="8"/>
     <col min="2" max="2" width="40.26953125" customWidth="1"/>
     <col min="3" max="3" width="23.26953125" customWidth="1"/>
     <col min="4" max="4" width="23.08984375" customWidth="1"/>
@@ -6881,190 +6997,190 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" t="s">
         <v>199</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C3" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E5" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" t="s">
         <v>199</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D6" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E5" s="10" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C7" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C8" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="C10" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C9" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="10" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C10" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
